--- a/請求書_2024年07月/請求書_2024年07月.xlsx
+++ b/請求書_2024年07月/請求書_2024年07月.xlsx
@@ -2,39 +2,139 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="請求書" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="株式会社A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="株式会社B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="株式会社D" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="株式会社E" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="株式会社F" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'請求書'!$A$1:$Q$34</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0%"/>
+    <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="13">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="游明朝"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <charset val="128"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="15"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="游明朝"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -42,15 +142,847 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -122,6 +1054,156 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -199,6 +1281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,6 +1316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,7 +1340,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -267,31 +1350,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -313,7 +1396,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -371,7 +1454,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +1467,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -410,17 +1492,5164 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:R37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <cols>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="1" max="3"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="5" max="8"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="104" min="9" max="9"/>
+    <col width="9.1796875" customWidth="1" style="32" min="10" max="10"/>
+    <col width="8.08984375" customWidth="1" style="4" min="11" max="11"/>
+    <col width="8.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="8.453125" customWidth="1" min="13" max="14"/>
+    <col width="8.453125" customWidth="1" style="2" min="15" max="15"/>
+    <col width="8.453125" customWidth="1" min="16" max="17"/>
+    <col width="0.90625" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="71.5" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="94" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="99" t="n"/>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="105" t="n"/>
+      <c r="J2" s="71" t="n"/>
+      <c r="K2" s="10" t="n"/>
+      <c r="L2" s="71" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="N2" s="33" t="n"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="n"/>
+      <c r="C3" s="106" t="n"/>
+      <c r="D3" s="106" t="n"/>
+      <c r="E3" s="106" t="n"/>
+      <c r="F3" s="106" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="101" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="J3" s="71" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="71" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="N3" s="107" t="n"/>
+    </row>
+    <row r="4" ht="32.5" customHeight="1">
+      <c r="A4" s="89" t="n"/>
+      <c r="B4" s="108" t="n"/>
+      <c r="C4" s="108" t="n"/>
+      <c r="D4" s="108" t="n"/>
+      <c r="E4" s="108" t="n"/>
+      <c r="F4" s="108" t="n"/>
+      <c r="G4" s="101" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="105" t="n"/>
+      <c r="J4" s="71" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="34" t="n"/>
+      <c r="M4" s="33" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="34" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="33" t="n"/>
+    </row>
+    <row r="5" ht="27" customHeight="1">
+      <c r="A5" s="33" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="109" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="33" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="34" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="33" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="J6" s="71" t="n"/>
+      <c r="K6" s="33" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="33" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="92" t="n"/>
+      <c r="C7" s="106" t="n"/>
+      <c r="D7" s="106" t="n"/>
+      <c r="E7" s="106" t="n"/>
+      <c r="F7" s="106" t="n"/>
+      <c r="G7" s="106" t="n"/>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="110" t="n"/>
+      <c r="J7" s="71" t="n"/>
+      <c r="K7" s="33" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="111" t="n"/>
+      <c r="J8" s="71" t="n"/>
+      <c r="K8" s="70" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="M8" s="33" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="81" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="83" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="86" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="71" t="n"/>
+      <c r="K9" s="70" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="M9" s="33" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="112" t="n"/>
+      <c r="B10" s="112" t="n"/>
+      <c r="C10" s="112" t="n"/>
+      <c r="D10" s="112" t="n"/>
+      <c r="E10" s="112" t="n"/>
+      <c r="F10" s="112" t="n"/>
+      <c r="G10" s="112" t="n"/>
+      <c r="H10" s="112" t="n"/>
+      <c r="I10" s="112" t="n"/>
+      <c r="J10" s="71" t="n"/>
+      <c r="K10" s="70" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="M10" s="88" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="111" t="n"/>
+      <c r="J11" s="71" t="n"/>
+      <c r="K11" s="70" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="M11" s="33" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="8" customHeight="1">
+      <c r="A12" s="33" t="n"/>
+      <c r="B12" s="33" t="n"/>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="33" t="n"/>
+      <c r="F12" s="33" t="n"/>
+      <c r="G12" s="33" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="110" t="n"/>
+      <c r="J12" s="71" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="34" t="n"/>
+      <c r="M12" s="33" t="n"/>
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="72" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="113" t="n"/>
+      <c r="C13" s="113" t="n"/>
+      <c r="D13" s="113" t="n"/>
+      <c r="E13" s="113" t="n"/>
+      <c r="F13" s="113" t="n"/>
+      <c r="G13" s="113" t="n"/>
+      <c r="H13" s="113" t="n"/>
+      <c r="I13" s="114" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="114" t="n"/>
+      <c r="L13" s="78" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="113" t="n"/>
+      <c r="N13" s="115" t="n"/>
+      <c r="O13" s="78" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="113" t="n"/>
+      <c r="Q13" s="115" t="n"/>
+    </row>
+    <row r="14" ht="33" customHeight="1">
+      <c r="A14" s="116" t="inlineStr">
+        <is>
+          <t>サンプル1</t>
+        </is>
+      </c>
+      <c r="B14" s="113" t="n"/>
+      <c r="C14" s="113" t="n"/>
+      <c r="D14" s="113" t="n"/>
+      <c r="E14" s="113" t="n"/>
+      <c r="F14" s="113" t="n"/>
+      <c r="G14" s="113" t="n"/>
+      <c r="H14" s="113" t="n"/>
+      <c r="I14" s="115" t="n"/>
+      <c r="J14" s="67" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L14" s="58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M14" s="113" t="n"/>
+      <c r="N14" s="115" t="n"/>
+      <c r="O14" s="58" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P14" s="113" t="n"/>
+      <c r="Q14" s="115" t="n"/>
+    </row>
+    <row r="15" ht="33" customHeight="1">
+      <c r="A15" s="116" t="n"/>
+      <c r="B15" s="113" t="n"/>
+      <c r="C15" s="113" t="n"/>
+      <c r="D15" s="113" t="n"/>
+      <c r="E15" s="113" t="n"/>
+      <c r="F15" s="113" t="n"/>
+      <c r="G15" s="113" t="n"/>
+      <c r="H15" s="113" t="n"/>
+      <c r="I15" s="115" t="n"/>
+      <c r="J15" s="67" t="n"/>
+      <c r="K15" s="17" t="n"/>
+      <c r="L15" s="58" t="n"/>
+      <c r="M15" s="113" t="n"/>
+      <c r="N15" s="115" t="n"/>
+      <c r="O15" s="58" t="str"/>
+      <c r="P15" s="113" t="n"/>
+      <c r="Q15" s="115" t="n"/>
+    </row>
+    <row r="16" ht="33" customHeight="1">
+      <c r="A16" s="116" t="n"/>
+      <c r="B16" s="113" t="n"/>
+      <c r="C16" s="113" t="n"/>
+      <c r="D16" s="113" t="n"/>
+      <c r="E16" s="113" t="n"/>
+      <c r="F16" s="113" t="n"/>
+      <c r="G16" s="113" t="n"/>
+      <c r="H16" s="113" t="n"/>
+      <c r="I16" s="115" t="n"/>
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="17" t="n"/>
+      <c r="L16" s="58" t="n"/>
+      <c r="M16" s="113" t="n"/>
+      <c r="N16" s="115" t="n"/>
+      <c r="O16" s="58" t="str"/>
+      <c r="P16" s="113" t="n"/>
+      <c r="Q16" s="115" t="n"/>
+    </row>
+    <row r="17" ht="33" customHeight="1">
+      <c r="A17" s="116" t="n"/>
+      <c r="B17" s="113" t="n"/>
+      <c r="C17" s="113" t="n"/>
+      <c r="D17" s="113" t="n"/>
+      <c r="E17" s="113" t="n"/>
+      <c r="F17" s="113" t="n"/>
+      <c r="G17" s="113" t="n"/>
+      <c r="H17" s="113" t="n"/>
+      <c r="I17" s="115" t="n"/>
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="17" t="n"/>
+      <c r="L17" s="58" t="n"/>
+      <c r="M17" s="113" t="n"/>
+      <c r="N17" s="115" t="n"/>
+      <c r="O17" s="58" t="str"/>
+      <c r="P17" s="113" t="n"/>
+      <c r="Q17" s="115" t="n"/>
+    </row>
+    <row r="18" ht="33" customHeight="1">
+      <c r="A18" s="116" t="n"/>
+      <c r="B18" s="113" t="n"/>
+      <c r="C18" s="113" t="n"/>
+      <c r="D18" s="113" t="n"/>
+      <c r="E18" s="113" t="n"/>
+      <c r="F18" s="113" t="n"/>
+      <c r="G18" s="113" t="n"/>
+      <c r="H18" s="113" t="n"/>
+      <c r="I18" s="115" t="n"/>
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="17" t="n"/>
+      <c r="L18" s="58" t="n"/>
+      <c r="M18" s="113" t="n"/>
+      <c r="N18" s="115" t="n"/>
+      <c r="O18" s="58" t="str"/>
+      <c r="P18" s="113" t="n"/>
+      <c r="Q18" s="115" t="n"/>
+    </row>
+    <row r="19" ht="33" customHeight="1">
+      <c r="A19" s="116" t="n"/>
+      <c r="B19" s="113" t="n"/>
+      <c r="C19" s="113" t="n"/>
+      <c r="D19" s="113" t="n"/>
+      <c r="E19" s="113" t="n"/>
+      <c r="F19" s="113" t="n"/>
+      <c r="G19" s="113" t="n"/>
+      <c r="H19" s="113" t="n"/>
+      <c r="I19" s="115" t="n"/>
+      <c r="J19" s="67" t="n"/>
+      <c r="K19" s="17" t="n"/>
+      <c r="L19" s="58" t="n"/>
+      <c r="M19" s="113" t="n"/>
+      <c r="N19" s="115" t="n"/>
+      <c r="O19" s="58" t="str"/>
+      <c r="P19" s="113" t="n"/>
+      <c r="Q19" s="115" t="n"/>
+    </row>
+    <row r="20" ht="33" customHeight="1">
+      <c r="A20" s="116" t="n"/>
+      <c r="B20" s="113" t="n"/>
+      <c r="C20" s="113" t="n"/>
+      <c r="D20" s="113" t="n"/>
+      <c r="E20" s="113" t="n"/>
+      <c r="F20" s="113" t="n"/>
+      <c r="G20" s="113" t="n"/>
+      <c r="H20" s="113" t="n"/>
+      <c r="I20" s="115" t="n"/>
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="17" t="n"/>
+      <c r="L20" s="58" t="n"/>
+      <c r="M20" s="113" t="n"/>
+      <c r="N20" s="115" t="n"/>
+      <c r="O20" s="58" t="str"/>
+      <c r="P20" s="113" t="n"/>
+      <c r="Q20" s="115" t="n"/>
+    </row>
+    <row r="21" ht="33" customHeight="1">
+      <c r="A21" s="116" t="n"/>
+      <c r="B21" s="113" t="n"/>
+      <c r="C21" s="113" t="n"/>
+      <c r="D21" s="113" t="n"/>
+      <c r="E21" s="113" t="n"/>
+      <c r="F21" s="113" t="n"/>
+      <c r="G21" s="113" t="n"/>
+      <c r="H21" s="113" t="n"/>
+      <c r="I21" s="115" t="n"/>
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="17" t="n"/>
+      <c r="L21" s="58" t="n"/>
+      <c r="M21" s="113" t="n"/>
+      <c r="N21" s="115" t="n"/>
+      <c r="O21" s="58" t="str"/>
+      <c r="P21" s="113" t="n"/>
+      <c r="Q21" s="115" t="n"/>
+    </row>
+    <row r="22" ht="33" customHeight="1">
+      <c r="A22" s="116" t="n"/>
+      <c r="B22" s="113" t="n"/>
+      <c r="C22" s="113" t="n"/>
+      <c r="D22" s="113" t="n"/>
+      <c r="E22" s="113" t="n"/>
+      <c r="F22" s="113" t="n"/>
+      <c r="G22" s="113" t="n"/>
+      <c r="H22" s="113" t="n"/>
+      <c r="I22" s="115" t="n"/>
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="17" t="n"/>
+      <c r="L22" s="58" t="n"/>
+      <c r="M22" s="113" t="n"/>
+      <c r="N22" s="115" t="n"/>
+      <c r="O22" s="58" t="str"/>
+      <c r="P22" s="113" t="n"/>
+      <c r="Q22" s="115" t="n"/>
+    </row>
+    <row r="23" ht="33" customHeight="1">
+      <c r="A23" s="116" t="n"/>
+      <c r="B23" s="113" t="n"/>
+      <c r="C23" s="113" t="n"/>
+      <c r="D23" s="113" t="n"/>
+      <c r="E23" s="113" t="n"/>
+      <c r="F23" s="113" t="n"/>
+      <c r="G23" s="113" t="n"/>
+      <c r="H23" s="113" t="n"/>
+      <c r="I23" s="115" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="17" t="n"/>
+      <c r="L23" s="58" t="n"/>
+      <c r="M23" s="113" t="n"/>
+      <c r="N23" s="115" t="n"/>
+      <c r="O23" s="58" t="str"/>
+      <c r="P23" s="113" t="n"/>
+      <c r="Q23" s="115" t="n"/>
+    </row>
+    <row r="24" ht="33" customHeight="1">
+      <c r="A24" s="116" t="n"/>
+      <c r="B24" s="113" t="n"/>
+      <c r="C24" s="113" t="n"/>
+      <c r="D24" s="113" t="n"/>
+      <c r="E24" s="113" t="n"/>
+      <c r="F24" s="113" t="n"/>
+      <c r="G24" s="113" t="n"/>
+      <c r="H24" s="113" t="n"/>
+      <c r="I24" s="115" t="n"/>
+      <c r="J24" s="67" t="n"/>
+      <c r="K24" s="17" t="n"/>
+      <c r="L24" s="58" t="n"/>
+      <c r="M24" s="113" t="n"/>
+      <c r="N24" s="115" t="n"/>
+      <c r="O24" s="58" t="str"/>
+      <c r="P24" s="113" t="n"/>
+      <c r="Q24" s="115" t="n"/>
+    </row>
+    <row r="25" ht="33" customHeight="1">
+      <c r="A25" s="116" t="n"/>
+      <c r="B25" s="113" t="n"/>
+      <c r="C25" s="113" t="n"/>
+      <c r="D25" s="113" t="n"/>
+      <c r="E25" s="113" t="n"/>
+      <c r="F25" s="113" t="n"/>
+      <c r="G25" s="113" t="n"/>
+      <c r="H25" s="113" t="n"/>
+      <c r="I25" s="115" t="n"/>
+      <c r="J25" s="30" t="n"/>
+      <c r="K25" s="17" t="n"/>
+      <c r="L25" s="58" t="n"/>
+      <c r="M25" s="113" t="n"/>
+      <c r="N25" s="115" t="n"/>
+      <c r="O25" s="58" t="str"/>
+      <c r="P25" s="113" t="n"/>
+      <c r="Q25" s="115" t="n"/>
+    </row>
+    <row r="26" ht="35.5" customHeight="1">
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="33" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="33" t="n"/>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="110" t="n"/>
+      <c r="J26" s="55" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="57" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="113" t="n"/>
+      <c r="N26" s="113" t="n"/>
+      <c r="O26" s="113" t="n"/>
+      <c r="P26" s="113" t="n"/>
+      <c r="Q26" s="115" t="n"/>
+    </row>
+    <row r="27" ht="35.5" customHeight="1">
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="33" t="n"/>
+      <c r="C27" s="33" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="33" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="59" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="119" t="n"/>
+      <c r="L27" s="57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="113" t="n"/>
+      <c r="N27" s="113" t="n"/>
+      <c r="O27" s="113" t="n"/>
+      <c r="P27" s="113" t="n"/>
+      <c r="Q27" s="115" t="n"/>
+    </row>
+    <row r="28" ht="35.5" customHeight="1">
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="33" t="n"/>
+      <c r="G28" s="33" t="n"/>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="110" t="n"/>
+      <c r="J28" s="59" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="119" t="n"/>
+      <c r="L28" s="61" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="113" t="n"/>
+      <c r="N28" s="113" t="n"/>
+      <c r="O28" s="113" t="n"/>
+      <c r="P28" s="113" t="n"/>
+      <c r="Q28" s="115" t="n"/>
+    </row>
+    <row r="29" ht="29.5" customHeight="1">
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="33" t="n"/>
+      <c r="G29" s="33" t="n"/>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="110" t="n"/>
+      <c r="J29" s="71" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="33" t="n"/>
+      <c r="N29" s="33" t="n"/>
+      <c r="O29" s="34" t="n"/>
+      <c r="P29" s="33" t="n"/>
+      <c r="Q29" s="33" t="n"/>
+    </row>
+    <row r="30" ht="26.5" customHeight="1">
+      <c r="A30" s="35" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="120" t="n"/>
+      <c r="C30" s="120" t="n"/>
+      <c r="D30" s="120" t="n"/>
+      <c r="E30" s="120" t="n"/>
+      <c r="F30" s="120" t="n"/>
+      <c r="G30" s="120" t="n"/>
+      <c r="H30" s="120" t="n"/>
+      <c r="I30" s="120" t="n"/>
+      <c r="J30" s="120" t="n"/>
+      <c r="K30" s="120" t="n"/>
+      <c r="L30" s="120" t="n"/>
+      <c r="M30" s="120" t="n"/>
+      <c r="N30" s="120" t="n"/>
+      <c r="O30" s="120" t="n"/>
+      <c r="P30" s="120" t="n"/>
+      <c r="Q30" s="121" t="n"/>
+      <c r="R30" s="6" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1">
+      <c r="A31" s="40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="108" t="n"/>
+      <c r="C31" s="108" t="n"/>
+      <c r="D31" s="108" t="n"/>
+      <c r="E31" s="108" t="n"/>
+      <c r="F31" s="108" t="n"/>
+      <c r="G31" s="108" t="n"/>
+      <c r="H31" s="108" t="n"/>
+      <c r="I31" s="108" t="n"/>
+      <c r="J31" s="108" t="n"/>
+      <c r="K31" s="108" t="n"/>
+      <c r="L31" s="108" t="n"/>
+      <c r="M31" s="108" t="n"/>
+      <c r="N31" s="108" t="n"/>
+      <c r="O31" s="108" t="n"/>
+      <c r="P31" s="108" t="n"/>
+      <c r="Q31" s="122" t="n"/>
+      <c r="R31" s="6" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="6" t="n"/>
+      <c r="Q32" s="123" t="n"/>
+      <c r="R32" s="6" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1">
+      <c r="A33" s="6" t="n"/>
+      <c r="Q33" s="123" t="n"/>
+      <c r="R33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="124" t="n"/>
+      <c r="B34" s="125" t="n"/>
+      <c r="C34" s="125" t="n"/>
+      <c r="D34" s="125" t="n"/>
+      <c r="E34" s="125" t="n"/>
+      <c r="F34" s="125" t="n"/>
+      <c r="G34" s="125" t="n"/>
+      <c r="H34" s="125" t="n"/>
+      <c r="I34" s="125" t="n"/>
+      <c r="J34" s="125" t="n"/>
+      <c r="K34" s="125" t="n"/>
+      <c r="L34" s="125" t="n"/>
+      <c r="M34" s="125" t="n"/>
+      <c r="N34" s="125" t="n"/>
+      <c r="O34" s="125" t="n"/>
+      <c r="P34" s="125" t="n"/>
+      <c r="Q34" s="126" t="n"/>
+      <c r="R34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="7" customHeight="1">
+      <c r="A35" s="19" t="n"/>
+      <c r="B35" s="20" t="n"/>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="20" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="20" t="n"/>
+      <c r="H35" s="20" t="n"/>
+      <c r="I35" s="127" t="n"/>
+      <c r="J35" s="31" t="n"/>
+      <c r="K35" s="23" t="n"/>
+      <c r="L35" s="21" t="n"/>
+      <c r="M35" s="20" t="n"/>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="21" t="n"/>
+      <c r="P35" s="20" t="n"/>
+      <c r="Q35" s="20" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customHeight="1">
+      <c r="A36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customHeight="1">
+      <c r="A37" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <cols>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="1" max="3"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="5" max="8"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="104" min="9" max="9"/>
+    <col width="9.1796875" customWidth="1" style="32" min="10" max="10"/>
+    <col width="8.08984375" customWidth="1" style="4" min="11" max="11"/>
+    <col width="8.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="8.453125" customWidth="1" min="13" max="14"/>
+    <col width="8.453125" customWidth="1" style="2" min="15" max="15"/>
+    <col width="8.453125" customWidth="1" min="16" max="17"/>
+    <col width="0.90625" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="71.5" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="94" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="99" t="inlineStr">
+        <is>
+          <t>株式会社A</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="105" t="n"/>
+      <c r="J2" s="71" t="n"/>
+      <c r="K2" s="10" t="n"/>
+      <c r="L2" s="71" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="N2" s="33" t="inlineStr">
+        <is>
+          <t>202407-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="n"/>
+      <c r="C3" s="106" t="n"/>
+      <c r="D3" s="106" t="n"/>
+      <c r="E3" s="106" t="n"/>
+      <c r="F3" s="106" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="101" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="J3" s="71" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="71" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="N3" s="107" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="32.5" customHeight="1">
+      <c r="A4" s="89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">一関 </t>
+        </is>
+      </c>
+      <c r="B4" s="108" t="n"/>
+      <c r="C4" s="108" t="n"/>
+      <c r="D4" s="108" t="n"/>
+      <c r="E4" s="108" t="n"/>
+      <c r="F4" s="108" t="n"/>
+      <c r="G4" s="101" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="105" t="n"/>
+      <c r="J4" s="71" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="34" t="n"/>
+      <c r="M4" s="33" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="34" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="33" t="n"/>
+    </row>
+    <row r="5" ht="27" customHeight="1">
+      <c r="A5" s="33" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="109" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="33" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="34" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="33" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="J6" s="71" t="n"/>
+      <c r="K6" s="33" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="33" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="92" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="106" t="n"/>
+      <c r="D7" s="106" t="n"/>
+      <c r="E7" s="106" t="n"/>
+      <c r="F7" s="106" t="n"/>
+      <c r="G7" s="106" t="n"/>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="110" t="n"/>
+      <c r="J7" s="71" t="n"/>
+      <c r="K7" s="33" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="111" t="n"/>
+      <c r="J8" s="71" t="n"/>
+      <c r="K8" s="70" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="M8" s="33" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="81" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="83" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="86" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="71" t="n"/>
+      <c r="K9" s="70" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="M9" s="33" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="112" t="n"/>
+      <c r="B10" s="112" t="n"/>
+      <c r="C10" s="112" t="n"/>
+      <c r="D10" s="112" t="n"/>
+      <c r="E10" s="112" t="n"/>
+      <c r="F10" s="112" t="n"/>
+      <c r="G10" s="112" t="n"/>
+      <c r="H10" s="112" t="n"/>
+      <c r="I10" s="112" t="n"/>
+      <c r="J10" s="71" t="n"/>
+      <c r="K10" s="70" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="M10" s="88" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="111" t="n"/>
+      <c r="J11" s="71" t="n"/>
+      <c r="K11" s="70" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="M11" s="33" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="8" customHeight="1">
+      <c r="A12" s="33" t="n"/>
+      <c r="B12" s="33" t="n"/>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="33" t="n"/>
+      <c r="F12" s="33" t="n"/>
+      <c r="G12" s="33" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="110" t="n"/>
+      <c r="J12" s="71" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="34" t="n"/>
+      <c r="M12" s="33" t="n"/>
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="72" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="113" t="n"/>
+      <c r="C13" s="113" t="n"/>
+      <c r="D13" s="113" t="n"/>
+      <c r="E13" s="113" t="n"/>
+      <c r="F13" s="113" t="n"/>
+      <c r="G13" s="113" t="n"/>
+      <c r="H13" s="113" t="n"/>
+      <c r="I13" s="114" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="114" t="n"/>
+      <c r="L13" s="78" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="113" t="n"/>
+      <c r="N13" s="115" t="n"/>
+      <c r="O13" s="78" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="113" t="n"/>
+      <c r="Q13" s="115" t="n"/>
+    </row>
+    <row r="14" ht="33" customHeight="1">
+      <c r="A14" s="116" t="inlineStr">
+        <is>
+          <t>コンサルティング料金</t>
+        </is>
+      </c>
+      <c r="B14" s="113" t="n"/>
+      <c r="C14" s="113" t="n"/>
+      <c r="D14" s="113" t="n"/>
+      <c r="E14" s="113" t="n"/>
+      <c r="F14" s="113" t="n"/>
+      <c r="G14" s="113" t="n"/>
+      <c r="H14" s="113" t="n"/>
+      <c r="I14" s="115" t="n"/>
+      <c r="J14" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L14" s="58" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M14" s="113" t="n"/>
+      <c r="N14" s="115" t="n"/>
+      <c r="O14" s="58" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P14" s="113" t="n"/>
+      <c r="Q14" s="115" t="n"/>
+    </row>
+    <row r="15" ht="33" customHeight="1">
+      <c r="A15" s="116" t="inlineStr">
+        <is>
+          <t>Webサイト制作料</t>
+        </is>
+      </c>
+      <c r="B15" s="113" t="n"/>
+      <c r="C15" s="113" t="n"/>
+      <c r="D15" s="113" t="n"/>
+      <c r="E15" s="113" t="n"/>
+      <c r="F15" s="113" t="n"/>
+      <c r="G15" s="113" t="n"/>
+      <c r="H15" s="113" t="n"/>
+      <c r="I15" s="115" t="n"/>
+      <c r="J15" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L15" s="58" t="n">
+        <v>300000</v>
+      </c>
+      <c r="M15" s="113" t="n"/>
+      <c r="N15" s="115" t="n"/>
+      <c r="O15" s="58" t="n">
+        <v>600000</v>
+      </c>
+      <c r="P15" s="113" t="n"/>
+      <c r="Q15" s="115" t="n"/>
+    </row>
+    <row r="16" ht="33" customHeight="1">
+      <c r="A16" s="116" t="inlineStr">
+        <is>
+          <t>メンテナンス料</t>
+        </is>
+      </c>
+      <c r="B16" s="113" t="n"/>
+      <c r="C16" s="113" t="n"/>
+      <c r="D16" s="113" t="n"/>
+      <c r="E16" s="113" t="n"/>
+      <c r="F16" s="113" t="n"/>
+      <c r="G16" s="113" t="n"/>
+      <c r="H16" s="113" t="n"/>
+      <c r="I16" s="115" t="n"/>
+      <c r="J16" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="L16" s="58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="113" t="n"/>
+      <c r="N16" s="115" t="n"/>
+      <c r="O16" s="58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P16" s="113" t="n"/>
+      <c r="Q16" s="115" t="n"/>
+    </row>
+    <row r="17" ht="33" customHeight="1">
+      <c r="A17" s="116" t="inlineStr">
+        <is>
+          <t>研修費用</t>
+        </is>
+      </c>
+      <c r="B17" s="113" t="n"/>
+      <c r="C17" s="113" t="n"/>
+      <c r="D17" s="113" t="n"/>
+      <c r="E17" s="113" t="n"/>
+      <c r="F17" s="113" t="n"/>
+      <c r="G17" s="113" t="n"/>
+      <c r="H17" s="113" t="n"/>
+      <c r="I17" s="115" t="n"/>
+      <c r="J17" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" s="17" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L17" s="58" t="n">
+        <v>200000</v>
+      </c>
+      <c r="M17" s="113" t="n"/>
+      <c r="N17" s="115" t="n"/>
+      <c r="O17" s="58" t="n">
+        <v>600000</v>
+      </c>
+      <c r="P17" s="113" t="n"/>
+      <c r="Q17" s="115" t="n"/>
+    </row>
+    <row r="18" ht="33" customHeight="1">
+      <c r="A18" s="116" t="inlineStr">
+        <is>
+          <t>広告掲載費</t>
+        </is>
+      </c>
+      <c r="B18" s="113" t="n"/>
+      <c r="C18" s="113" t="n"/>
+      <c r="D18" s="113" t="n"/>
+      <c r="E18" s="113" t="n"/>
+      <c r="F18" s="113" t="n"/>
+      <c r="G18" s="113" t="n"/>
+      <c r="H18" s="113" t="n"/>
+      <c r="I18" s="115" t="n"/>
+      <c r="J18" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="L18" s="58" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M18" s="113" t="n"/>
+      <c r="N18" s="115" t="n"/>
+      <c r="O18" s="58" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P18" s="113" t="n"/>
+      <c r="Q18" s="115" t="n"/>
+    </row>
+    <row r="19" ht="33" customHeight="1">
+      <c r="A19" s="116" t="inlineStr">
+        <is>
+          <t>商品販売代金</t>
+        </is>
+      </c>
+      <c r="B19" s="113" t="n"/>
+      <c r="C19" s="113" t="n"/>
+      <c r="D19" s="113" t="n"/>
+      <c r="E19" s="113" t="n"/>
+      <c r="F19" s="113" t="n"/>
+      <c r="G19" s="113" t="n"/>
+      <c r="H19" s="113" t="n"/>
+      <c r="I19" s="115" t="n"/>
+      <c r="J19" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="17" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L19" s="58" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M19" s="113" t="n"/>
+      <c r="N19" s="115" t="n"/>
+      <c r="O19" s="58" t="n">
+        <v>50000</v>
+      </c>
+      <c r="P19" s="113" t="n"/>
+      <c r="Q19" s="115" t="n"/>
+    </row>
+    <row r="20" ht="33" customHeight="1">
+      <c r="A20" s="116" t="inlineStr">
+        <is>
+          <t>保守契約料</t>
+        </is>
+      </c>
+      <c r="B20" s="113" t="n"/>
+      <c r="C20" s="113" t="n"/>
+      <c r="D20" s="113" t="n"/>
+      <c r="E20" s="113" t="n"/>
+      <c r="F20" s="113" t="n"/>
+      <c r="G20" s="113" t="n"/>
+      <c r="H20" s="113" t="n"/>
+      <c r="I20" s="115" t="n"/>
+      <c r="J20" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="17" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="L20" s="58" t="n">
+        <v>200000</v>
+      </c>
+      <c r="M20" s="113" t="n"/>
+      <c r="N20" s="115" t="n"/>
+      <c r="O20" s="58" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P20" s="113" t="n"/>
+      <c r="Q20" s="115" t="n"/>
+    </row>
+    <row r="21" ht="33" customHeight="1">
+      <c r="A21" s="116" t="inlineStr">
+        <is>
+          <t>サポート料金</t>
+        </is>
+      </c>
+      <c r="B21" s="113" t="n"/>
+      <c r="C21" s="113" t="n"/>
+      <c r="D21" s="113" t="n"/>
+      <c r="E21" s="113" t="n"/>
+      <c r="F21" s="113" t="n"/>
+      <c r="G21" s="113" t="n"/>
+      <c r="H21" s="113" t="n"/>
+      <c r="I21" s="115" t="n"/>
+      <c r="J21" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="17" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="L21" s="58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M21" s="113" t="n"/>
+      <c r="N21" s="115" t="n"/>
+      <c r="O21" s="58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P21" s="113" t="n"/>
+      <c r="Q21" s="115" t="n"/>
+    </row>
+    <row r="22" ht="33" customHeight="1">
+      <c r="A22" s="116" t="inlineStr">
+        <is>
+          <t>ライセンス料</t>
+        </is>
+      </c>
+      <c r="B22" s="113" t="n"/>
+      <c r="C22" s="113" t="n"/>
+      <c r="D22" s="113" t="n"/>
+      <c r="E22" s="113" t="n"/>
+      <c r="F22" s="113" t="n"/>
+      <c r="G22" s="113" t="n"/>
+      <c r="H22" s="113" t="n"/>
+      <c r="I22" s="115" t="n"/>
+      <c r="J22" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" s="17" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L22" s="58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M22" s="113" t="n"/>
+      <c r="N22" s="115" t="n"/>
+      <c r="O22" s="58" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P22" s="113" t="n"/>
+      <c r="Q22" s="115" t="n"/>
+    </row>
+    <row r="23" ht="33" customHeight="1">
+      <c r="A23" s="116" t="inlineStr">
+        <is>
+          <t>レンタル料</t>
+        </is>
+      </c>
+      <c r="B23" s="113" t="n"/>
+      <c r="C23" s="113" t="n"/>
+      <c r="D23" s="113" t="n"/>
+      <c r="E23" s="113" t="n"/>
+      <c r="F23" s="113" t="n"/>
+      <c r="G23" s="113" t="n"/>
+      <c r="H23" s="113" t="n"/>
+      <c r="I23" s="115" t="n"/>
+      <c r="J23" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="17" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L23" s="58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M23" s="113" t="n"/>
+      <c r="N23" s="115" t="n"/>
+      <c r="O23" s="58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P23" s="113" t="n"/>
+      <c r="Q23" s="115" t="n"/>
+    </row>
+    <row r="24" ht="33" customHeight="1">
+      <c r="A24" s="116" t="n"/>
+      <c r="B24" s="113" t="n"/>
+      <c r="C24" s="113" t="n"/>
+      <c r="D24" s="113" t="n"/>
+      <c r="E24" s="113" t="n"/>
+      <c r="F24" s="113" t="n"/>
+      <c r="G24" s="113" t="n"/>
+      <c r="H24" s="113" t="n"/>
+      <c r="I24" s="115" t="n"/>
+      <c r="J24" s="67" t="n"/>
+      <c r="K24" s="17" t="n"/>
+      <c r="L24" s="58" t="n"/>
+      <c r="M24" s="113" t="n"/>
+      <c r="N24" s="115" t="n"/>
+      <c r="O24" s="58" t="str"/>
+      <c r="P24" s="113" t="n"/>
+      <c r="Q24" s="115" t="n"/>
+    </row>
+    <row r="25" ht="33" customHeight="1">
+      <c r="A25" s="116" t="n"/>
+      <c r="B25" s="113" t="n"/>
+      <c r="C25" s="113" t="n"/>
+      <c r="D25" s="113" t="n"/>
+      <c r="E25" s="113" t="n"/>
+      <c r="F25" s="113" t="n"/>
+      <c r="G25" s="113" t="n"/>
+      <c r="H25" s="113" t="n"/>
+      <c r="I25" s="115" t="n"/>
+      <c r="J25" s="30" t="n"/>
+      <c r="K25" s="17" t="n"/>
+      <c r="L25" s="58" t="n"/>
+      <c r="M25" s="113" t="n"/>
+      <c r="N25" s="115" t="n"/>
+      <c r="O25" s="58" t="str"/>
+      <c r="P25" s="113" t="n"/>
+      <c r="Q25" s="115" t="n"/>
+    </row>
+    <row r="26" ht="35.5" customHeight="1">
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="33" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="33" t="n"/>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="110" t="n"/>
+      <c r="J26" s="55" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="57" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="113" t="n"/>
+      <c r="N26" s="113" t="n"/>
+      <c r="O26" s="113" t="n"/>
+      <c r="P26" s="113" t="n"/>
+      <c r="Q26" s="115" t="n"/>
+    </row>
+    <row r="27" ht="35.5" customHeight="1">
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="33" t="n"/>
+      <c r="C27" s="33" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="33" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="59" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="119" t="n"/>
+      <c r="L27" s="57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="113" t="n"/>
+      <c r="N27" s="113" t="n"/>
+      <c r="O27" s="113" t="n"/>
+      <c r="P27" s="113" t="n"/>
+      <c r="Q27" s="115" t="n"/>
+    </row>
+    <row r="28" ht="35.5" customHeight="1">
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="33" t="n"/>
+      <c r="G28" s="33" t="n"/>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="110" t="n"/>
+      <c r="J28" s="59" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="119" t="n"/>
+      <c r="L28" s="61" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="113" t="n"/>
+      <c r="N28" s="113" t="n"/>
+      <c r="O28" s="113" t="n"/>
+      <c r="P28" s="113" t="n"/>
+      <c r="Q28" s="115" t="n"/>
+    </row>
+    <row r="29" ht="29.5" customHeight="1">
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="33" t="n"/>
+      <c r="G29" s="33" t="n"/>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="110" t="n"/>
+      <c r="J29" s="71" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="33" t="n"/>
+      <c r="N29" s="33" t="n"/>
+      <c r="O29" s="34" t="n"/>
+      <c r="P29" s="33" t="n"/>
+      <c r="Q29" s="33" t="n"/>
+    </row>
+    <row r="30" ht="26.5" customHeight="1">
+      <c r="A30" s="35" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="120" t="n"/>
+      <c r="C30" s="120" t="n"/>
+      <c r="D30" s="120" t="n"/>
+      <c r="E30" s="120" t="n"/>
+      <c r="F30" s="120" t="n"/>
+      <c r="G30" s="120" t="n"/>
+      <c r="H30" s="120" t="n"/>
+      <c r="I30" s="120" t="n"/>
+      <c r="J30" s="120" t="n"/>
+      <c r="K30" s="120" t="n"/>
+      <c r="L30" s="120" t="n"/>
+      <c r="M30" s="120" t="n"/>
+      <c r="N30" s="120" t="n"/>
+      <c r="O30" s="120" t="n"/>
+      <c r="P30" s="120" t="n"/>
+      <c r="Q30" s="121" t="n"/>
+      <c r="R30" s="6" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1">
+      <c r="A31" s="40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="108" t="n"/>
+      <c r="C31" s="108" t="n"/>
+      <c r="D31" s="108" t="n"/>
+      <c r="E31" s="108" t="n"/>
+      <c r="F31" s="108" t="n"/>
+      <c r="G31" s="108" t="n"/>
+      <c r="H31" s="108" t="n"/>
+      <c r="I31" s="108" t="n"/>
+      <c r="J31" s="108" t="n"/>
+      <c r="K31" s="108" t="n"/>
+      <c r="L31" s="108" t="n"/>
+      <c r="M31" s="108" t="n"/>
+      <c r="N31" s="108" t="n"/>
+      <c r="O31" s="108" t="n"/>
+      <c r="P31" s="108" t="n"/>
+      <c r="Q31" s="122" t="n"/>
+      <c r="R31" s="6" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="6" t="n"/>
+      <c r="Q32" s="123" t="n"/>
+      <c r="R32" s="6" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1">
+      <c r="A33" s="6" t="n"/>
+      <c r="Q33" s="123" t="n"/>
+      <c r="R33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="124" t="n"/>
+      <c r="B34" s="125" t="n"/>
+      <c r="C34" s="125" t="n"/>
+      <c r="D34" s="125" t="n"/>
+      <c r="E34" s="125" t="n"/>
+      <c r="F34" s="125" t="n"/>
+      <c r="G34" s="125" t="n"/>
+      <c r="H34" s="125" t="n"/>
+      <c r="I34" s="125" t="n"/>
+      <c r="J34" s="125" t="n"/>
+      <c r="K34" s="125" t="n"/>
+      <c r="L34" s="125" t="n"/>
+      <c r="M34" s="125" t="n"/>
+      <c r="N34" s="125" t="n"/>
+      <c r="O34" s="125" t="n"/>
+      <c r="P34" s="125" t="n"/>
+      <c r="Q34" s="126" t="n"/>
+      <c r="R34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="7" customHeight="1">
+      <c r="A35" s="19" t="n"/>
+      <c r="B35" s="20" t="n"/>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="20" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="20" t="n"/>
+      <c r="H35" s="20" t="n"/>
+      <c r="I35" s="127" t="n"/>
+      <c r="J35" s="31" t="n"/>
+      <c r="K35" s="23" t="n"/>
+      <c r="L35" s="21" t="n"/>
+      <c r="M35" s="20" t="n"/>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="21" t="n"/>
+      <c r="P35" s="20" t="n"/>
+      <c r="Q35" s="20" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customHeight="1">
+      <c r="A36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customHeight="1">
+      <c r="A37" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <cols>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="1" max="3"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="5" max="8"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="104" min="9" max="9"/>
+    <col width="9.1796875" customWidth="1" style="32" min="10" max="10"/>
+    <col width="8.08984375" customWidth="1" style="4" min="11" max="11"/>
+    <col width="8.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="8.453125" customWidth="1" min="13" max="14"/>
+    <col width="8.453125" customWidth="1" style="2" min="15" max="15"/>
+    <col width="8.453125" customWidth="1" min="16" max="17"/>
+    <col width="0.90625" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="71.5" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="94" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="99" t="inlineStr">
+        <is>
+          <t>株式会社B</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="105" t="n"/>
+      <c r="J2" s="71" t="n"/>
+      <c r="K2" s="10" t="n"/>
+      <c r="L2" s="71" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="N2" s="33" t="inlineStr">
+        <is>
+          <t>202407-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="n"/>
+      <c r="C3" s="106" t="n"/>
+      <c r="D3" s="106" t="n"/>
+      <c r="E3" s="106" t="n"/>
+      <c r="F3" s="106" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="101" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="J3" s="71" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="71" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="N3" s="107" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="32.5" customHeight="1">
+      <c r="A4" s="89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ご担当者 </t>
+        </is>
+      </c>
+      <c r="B4" s="108" t="n"/>
+      <c r="C4" s="108" t="n"/>
+      <c r="D4" s="108" t="n"/>
+      <c r="E4" s="108" t="n"/>
+      <c r="F4" s="108" t="n"/>
+      <c r="G4" s="101" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="105" t="n"/>
+      <c r="J4" s="71" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="34" t="n"/>
+      <c r="M4" s="33" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="34" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="33" t="n"/>
+    </row>
+    <row r="5" ht="27" customHeight="1">
+      <c r="A5" s="33" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="109" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="33" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="34" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="33" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="J6" s="71" t="n"/>
+      <c r="K6" s="33" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="33" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="92" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="106" t="n"/>
+      <c r="D7" s="106" t="n"/>
+      <c r="E7" s="106" t="n"/>
+      <c r="F7" s="106" t="n"/>
+      <c r="G7" s="106" t="n"/>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="110" t="n"/>
+      <c r="J7" s="71" t="n"/>
+      <c r="K7" s="33" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="111" t="n"/>
+      <c r="J8" s="71" t="n"/>
+      <c r="K8" s="70" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="M8" s="33" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="81" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="83" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="86" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="71" t="n"/>
+      <c r="K9" s="70" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="M9" s="33" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="112" t="n"/>
+      <c r="B10" s="112" t="n"/>
+      <c r="C10" s="112" t="n"/>
+      <c r="D10" s="112" t="n"/>
+      <c r="E10" s="112" t="n"/>
+      <c r="F10" s="112" t="n"/>
+      <c r="G10" s="112" t="n"/>
+      <c r="H10" s="112" t="n"/>
+      <c r="I10" s="112" t="n"/>
+      <c r="J10" s="71" t="n"/>
+      <c r="K10" s="70" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="M10" s="88" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="111" t="n"/>
+      <c r="J11" s="71" t="n"/>
+      <c r="K11" s="70" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="M11" s="33" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="8" customHeight="1">
+      <c r="A12" s="33" t="n"/>
+      <c r="B12" s="33" t="n"/>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="33" t="n"/>
+      <c r="F12" s="33" t="n"/>
+      <c r="G12" s="33" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="110" t="n"/>
+      <c r="J12" s="71" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="34" t="n"/>
+      <c r="M12" s="33" t="n"/>
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="72" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="113" t="n"/>
+      <c r="C13" s="113" t="n"/>
+      <c r="D13" s="113" t="n"/>
+      <c r="E13" s="113" t="n"/>
+      <c r="F13" s="113" t="n"/>
+      <c r="G13" s="113" t="n"/>
+      <c r="H13" s="113" t="n"/>
+      <c r="I13" s="114" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="114" t="n"/>
+      <c r="L13" s="78" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="113" t="n"/>
+      <c r="N13" s="115" t="n"/>
+      <c r="O13" s="78" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="113" t="n"/>
+      <c r="Q13" s="115" t="n"/>
+    </row>
+    <row r="14" ht="33" customHeight="1">
+      <c r="A14" s="116" t="inlineStr">
+        <is>
+          <t>Webサイト制作料</t>
+        </is>
+      </c>
+      <c r="B14" s="113" t="n"/>
+      <c r="C14" s="113" t="n"/>
+      <c r="D14" s="113" t="n"/>
+      <c r="E14" s="113" t="n"/>
+      <c r="F14" s="113" t="n"/>
+      <c r="G14" s="113" t="n"/>
+      <c r="H14" s="113" t="n"/>
+      <c r="I14" s="115" t="n"/>
+      <c r="J14" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L14" s="58" t="n">
+        <v>300000</v>
+      </c>
+      <c r="M14" s="113" t="n"/>
+      <c r="N14" s="115" t="n"/>
+      <c r="O14" s="58" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P14" s="113" t="n"/>
+      <c r="Q14" s="115" t="n"/>
+    </row>
+    <row r="15" ht="33" customHeight="1">
+      <c r="A15" s="116" t="inlineStr">
+        <is>
+          <t>コンサルティング料金</t>
+        </is>
+      </c>
+      <c r="B15" s="113" t="n"/>
+      <c r="C15" s="113" t="n"/>
+      <c r="D15" s="113" t="n"/>
+      <c r="E15" s="113" t="n"/>
+      <c r="F15" s="113" t="n"/>
+      <c r="G15" s="113" t="n"/>
+      <c r="H15" s="113" t="n"/>
+      <c r="I15" s="115" t="n"/>
+      <c r="J15" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L15" s="58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M15" s="113" t="n"/>
+      <c r="N15" s="115" t="n"/>
+      <c r="O15" s="58" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P15" s="113" t="n"/>
+      <c r="Q15" s="115" t="n"/>
+    </row>
+    <row r="16" ht="33" customHeight="1">
+      <c r="A16" s="116" t="n"/>
+      <c r="B16" s="113" t="n"/>
+      <c r="C16" s="113" t="n"/>
+      <c r="D16" s="113" t="n"/>
+      <c r="E16" s="113" t="n"/>
+      <c r="F16" s="113" t="n"/>
+      <c r="G16" s="113" t="n"/>
+      <c r="H16" s="113" t="n"/>
+      <c r="I16" s="115" t="n"/>
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="17" t="n"/>
+      <c r="L16" s="58" t="n"/>
+      <c r="M16" s="113" t="n"/>
+      <c r="N16" s="115" t="n"/>
+      <c r="O16" s="58" t="n"/>
+      <c r="P16" s="113" t="n"/>
+      <c r="Q16" s="115" t="n"/>
+    </row>
+    <row r="17" ht="33" customHeight="1">
+      <c r="A17" s="116" t="n"/>
+      <c r="B17" s="113" t="n"/>
+      <c r="C17" s="113" t="n"/>
+      <c r="D17" s="113" t="n"/>
+      <c r="E17" s="113" t="n"/>
+      <c r="F17" s="113" t="n"/>
+      <c r="G17" s="113" t="n"/>
+      <c r="H17" s="113" t="n"/>
+      <c r="I17" s="115" t="n"/>
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="17" t="n"/>
+      <c r="L17" s="58" t="n"/>
+      <c r="M17" s="113" t="n"/>
+      <c r="N17" s="115" t="n"/>
+      <c r="O17" s="58" t="n"/>
+      <c r="P17" s="113" t="n"/>
+      <c r="Q17" s="115" t="n"/>
+    </row>
+    <row r="18" ht="33" customHeight="1">
+      <c r="A18" s="116" t="n"/>
+      <c r="B18" s="113" t="n"/>
+      <c r="C18" s="113" t="n"/>
+      <c r="D18" s="113" t="n"/>
+      <c r="E18" s="113" t="n"/>
+      <c r="F18" s="113" t="n"/>
+      <c r="G18" s="113" t="n"/>
+      <c r="H18" s="113" t="n"/>
+      <c r="I18" s="115" t="n"/>
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="17" t="n"/>
+      <c r="L18" s="58" t="n"/>
+      <c r="M18" s="113" t="n"/>
+      <c r="N18" s="115" t="n"/>
+      <c r="O18" s="58" t="n"/>
+      <c r="P18" s="113" t="n"/>
+      <c r="Q18" s="115" t="n"/>
+    </row>
+    <row r="19" ht="33" customHeight="1">
+      <c r="A19" s="116" t="n"/>
+      <c r="B19" s="113" t="n"/>
+      <c r="C19" s="113" t="n"/>
+      <c r="D19" s="113" t="n"/>
+      <c r="E19" s="113" t="n"/>
+      <c r="F19" s="113" t="n"/>
+      <c r="G19" s="113" t="n"/>
+      <c r="H19" s="113" t="n"/>
+      <c r="I19" s="115" t="n"/>
+      <c r="J19" s="67" t="n"/>
+      <c r="K19" s="17" t="n"/>
+      <c r="L19" s="58" t="n"/>
+      <c r="M19" s="113" t="n"/>
+      <c r="N19" s="115" t="n"/>
+      <c r="O19" s="58" t="n"/>
+      <c r="P19" s="113" t="n"/>
+      <c r="Q19" s="115" t="n"/>
+    </row>
+    <row r="20" ht="33" customHeight="1">
+      <c r="A20" s="116" t="n"/>
+      <c r="B20" s="113" t="n"/>
+      <c r="C20" s="113" t="n"/>
+      <c r="D20" s="113" t="n"/>
+      <c r="E20" s="113" t="n"/>
+      <c r="F20" s="113" t="n"/>
+      <c r="G20" s="113" t="n"/>
+      <c r="H20" s="113" t="n"/>
+      <c r="I20" s="115" t="n"/>
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="17" t="n"/>
+      <c r="L20" s="58" t="n"/>
+      <c r="M20" s="113" t="n"/>
+      <c r="N20" s="115" t="n"/>
+      <c r="O20" s="58" t="n"/>
+      <c r="P20" s="113" t="n"/>
+      <c r="Q20" s="115" t="n"/>
+    </row>
+    <row r="21" ht="33" customHeight="1">
+      <c r="A21" s="116" t="n"/>
+      <c r="B21" s="113" t="n"/>
+      <c r="C21" s="113" t="n"/>
+      <c r="D21" s="113" t="n"/>
+      <c r="E21" s="113" t="n"/>
+      <c r="F21" s="113" t="n"/>
+      <c r="G21" s="113" t="n"/>
+      <c r="H21" s="113" t="n"/>
+      <c r="I21" s="115" t="n"/>
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="17" t="n"/>
+      <c r="L21" s="58" t="n"/>
+      <c r="M21" s="113" t="n"/>
+      <c r="N21" s="115" t="n"/>
+      <c r="O21" s="58" t="n"/>
+      <c r="P21" s="113" t="n"/>
+      <c r="Q21" s="115" t="n"/>
+    </row>
+    <row r="22" ht="33" customHeight="1">
+      <c r="A22" s="116" t="n"/>
+      <c r="B22" s="113" t="n"/>
+      <c r="C22" s="113" t="n"/>
+      <c r="D22" s="113" t="n"/>
+      <c r="E22" s="113" t="n"/>
+      <c r="F22" s="113" t="n"/>
+      <c r="G22" s="113" t="n"/>
+      <c r="H22" s="113" t="n"/>
+      <c r="I22" s="115" t="n"/>
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="17" t="n"/>
+      <c r="L22" s="58" t="n"/>
+      <c r="M22" s="113" t="n"/>
+      <c r="N22" s="115" t="n"/>
+      <c r="O22" s="58" t="n"/>
+      <c r="P22" s="113" t="n"/>
+      <c r="Q22" s="115" t="n"/>
+    </row>
+    <row r="23" ht="33" customHeight="1">
+      <c r="A23" s="116" t="n"/>
+      <c r="B23" s="113" t="n"/>
+      <c r="C23" s="113" t="n"/>
+      <c r="D23" s="113" t="n"/>
+      <c r="E23" s="113" t="n"/>
+      <c r="F23" s="113" t="n"/>
+      <c r="G23" s="113" t="n"/>
+      <c r="H23" s="113" t="n"/>
+      <c r="I23" s="115" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="17" t="n"/>
+      <c r="L23" s="58" t="n"/>
+      <c r="M23" s="113" t="n"/>
+      <c r="N23" s="115" t="n"/>
+      <c r="O23" s="58" t="n"/>
+      <c r="P23" s="113" t="n"/>
+      <c r="Q23" s="115" t="n"/>
+    </row>
+    <row r="24" ht="33" customHeight="1">
+      <c r="A24" s="116" t="n"/>
+      <c r="B24" s="113" t="n"/>
+      <c r="C24" s="113" t="n"/>
+      <c r="D24" s="113" t="n"/>
+      <c r="E24" s="113" t="n"/>
+      <c r="F24" s="113" t="n"/>
+      <c r="G24" s="113" t="n"/>
+      <c r="H24" s="113" t="n"/>
+      <c r="I24" s="115" t="n"/>
+      <c r="J24" s="67" t="n"/>
+      <c r="K24" s="17" t="n"/>
+      <c r="L24" s="58" t="n"/>
+      <c r="M24" s="113" t="n"/>
+      <c r="N24" s="115" t="n"/>
+      <c r="O24" s="58" t="str"/>
+      <c r="P24" s="113" t="n"/>
+      <c r="Q24" s="115" t="n"/>
+    </row>
+    <row r="25" ht="33" customHeight="1">
+      <c r="A25" s="116" t="n"/>
+      <c r="B25" s="113" t="n"/>
+      <c r="C25" s="113" t="n"/>
+      <c r="D25" s="113" t="n"/>
+      <c r="E25" s="113" t="n"/>
+      <c r="F25" s="113" t="n"/>
+      <c r="G25" s="113" t="n"/>
+      <c r="H25" s="113" t="n"/>
+      <c r="I25" s="115" t="n"/>
+      <c r="J25" s="30" t="n"/>
+      <c r="K25" s="17" t="n"/>
+      <c r="L25" s="58" t="n"/>
+      <c r="M25" s="113" t="n"/>
+      <c r="N25" s="115" t="n"/>
+      <c r="O25" s="58" t="str"/>
+      <c r="P25" s="113" t="n"/>
+      <c r="Q25" s="115" t="n"/>
+    </row>
+    <row r="26" ht="35.5" customHeight="1">
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="33" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="33" t="n"/>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="110" t="n"/>
+      <c r="J26" s="55" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="57" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="113" t="n"/>
+      <c r="N26" s="113" t="n"/>
+      <c r="O26" s="113" t="n"/>
+      <c r="P26" s="113" t="n"/>
+      <c r="Q26" s="115" t="n"/>
+    </row>
+    <row r="27" ht="35.5" customHeight="1">
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="33" t="n"/>
+      <c r="C27" s="33" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="33" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="59" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="119" t="n"/>
+      <c r="L27" s="57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="113" t="n"/>
+      <c r="N27" s="113" t="n"/>
+      <c r="O27" s="113" t="n"/>
+      <c r="P27" s="113" t="n"/>
+      <c r="Q27" s="115" t="n"/>
+    </row>
+    <row r="28" ht="35.5" customHeight="1">
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="33" t="n"/>
+      <c r="G28" s="33" t="n"/>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="110" t="n"/>
+      <c r="J28" s="59" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="119" t="n"/>
+      <c r="L28" s="61" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="113" t="n"/>
+      <c r="N28" s="113" t="n"/>
+      <c r="O28" s="113" t="n"/>
+      <c r="P28" s="113" t="n"/>
+      <c r="Q28" s="115" t="n"/>
+    </row>
+    <row r="29" ht="29.5" customHeight="1">
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="33" t="n"/>
+      <c r="G29" s="33" t="n"/>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="110" t="n"/>
+      <c r="J29" s="71" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="33" t="n"/>
+      <c r="N29" s="33" t="n"/>
+      <c r="O29" s="34" t="n"/>
+      <c r="P29" s="33" t="n"/>
+      <c r="Q29" s="33" t="n"/>
+    </row>
+    <row r="30" ht="26.5" customHeight="1">
+      <c r="A30" s="35" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="120" t="n"/>
+      <c r="C30" s="120" t="n"/>
+      <c r="D30" s="120" t="n"/>
+      <c r="E30" s="120" t="n"/>
+      <c r="F30" s="120" t="n"/>
+      <c r="G30" s="120" t="n"/>
+      <c r="H30" s="120" t="n"/>
+      <c r="I30" s="120" t="n"/>
+      <c r="J30" s="120" t="n"/>
+      <c r="K30" s="120" t="n"/>
+      <c r="L30" s="120" t="n"/>
+      <c r="M30" s="120" t="n"/>
+      <c r="N30" s="120" t="n"/>
+      <c r="O30" s="120" t="n"/>
+      <c r="P30" s="120" t="n"/>
+      <c r="Q30" s="121" t="n"/>
+      <c r="R30" s="6" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1">
+      <c r="A31" s="40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="108" t="n"/>
+      <c r="C31" s="108" t="n"/>
+      <c r="D31" s="108" t="n"/>
+      <c r="E31" s="108" t="n"/>
+      <c r="F31" s="108" t="n"/>
+      <c r="G31" s="108" t="n"/>
+      <c r="H31" s="108" t="n"/>
+      <c r="I31" s="108" t="n"/>
+      <c r="J31" s="108" t="n"/>
+      <c r="K31" s="108" t="n"/>
+      <c r="L31" s="108" t="n"/>
+      <c r="M31" s="108" t="n"/>
+      <c r="N31" s="108" t="n"/>
+      <c r="O31" s="108" t="n"/>
+      <c r="P31" s="108" t="n"/>
+      <c r="Q31" s="122" t="n"/>
+      <c r="R31" s="6" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="6" t="n"/>
+      <c r="Q32" s="123" t="n"/>
+      <c r="R32" s="6" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1">
+      <c r="A33" s="6" t="n"/>
+      <c r="Q33" s="123" t="n"/>
+      <c r="R33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="124" t="n"/>
+      <c r="B34" s="125" t="n"/>
+      <c r="C34" s="125" t="n"/>
+      <c r="D34" s="125" t="n"/>
+      <c r="E34" s="125" t="n"/>
+      <c r="F34" s="125" t="n"/>
+      <c r="G34" s="125" t="n"/>
+      <c r="H34" s="125" t="n"/>
+      <c r="I34" s="125" t="n"/>
+      <c r="J34" s="125" t="n"/>
+      <c r="K34" s="125" t="n"/>
+      <c r="L34" s="125" t="n"/>
+      <c r="M34" s="125" t="n"/>
+      <c r="N34" s="125" t="n"/>
+      <c r="O34" s="125" t="n"/>
+      <c r="P34" s="125" t="n"/>
+      <c r="Q34" s="126" t="n"/>
+      <c r="R34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="7" customHeight="1">
+      <c r="A35" s="19" t="n"/>
+      <c r="B35" s="20" t="n"/>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="20" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="20" t="n"/>
+      <c r="H35" s="20" t="n"/>
+      <c r="I35" s="127" t="n"/>
+      <c r="J35" s="31" t="n"/>
+      <c r="K35" s="23" t="n"/>
+      <c r="L35" s="21" t="n"/>
+      <c r="M35" s="20" t="n"/>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="21" t="n"/>
+      <c r="P35" s="20" t="n"/>
+      <c r="Q35" s="20" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customHeight="1">
+      <c r="A36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customHeight="1">
+      <c r="A37" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <cols>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="1" max="3"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="5" max="8"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="104" min="9" max="9"/>
+    <col width="9.1796875" customWidth="1" style="32" min="10" max="10"/>
+    <col width="8.08984375" customWidth="1" style="4" min="11" max="11"/>
+    <col width="8.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="8.453125" customWidth="1" min="13" max="14"/>
+    <col width="8.453125" customWidth="1" style="2" min="15" max="15"/>
+    <col width="8.453125" customWidth="1" min="16" max="17"/>
+    <col width="0.90625" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="71.5" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="94" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="99" t="inlineStr">
+        <is>
+          <t>株式会社D</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="105" t="n"/>
+      <c r="J2" s="71" t="n"/>
+      <c r="K2" s="10" t="n"/>
+      <c r="L2" s="71" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="N2" s="33" t="inlineStr">
+        <is>
+          <t>202407-003</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="n"/>
+      <c r="C3" s="106" t="n"/>
+      <c r="D3" s="106" t="n"/>
+      <c r="E3" s="106" t="n"/>
+      <c r="F3" s="106" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="101" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="J3" s="71" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="71" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="N3" s="107" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="32.5" customHeight="1">
+      <c r="A4" s="89" t="inlineStr">
+        <is>
+          <t>経営企画部</t>
+        </is>
+      </c>
+      <c r="B4" s="108" t="n"/>
+      <c r="C4" s="108" t="n"/>
+      <c r="D4" s="108" t="n"/>
+      <c r="E4" s="108" t="n"/>
+      <c r="F4" s="108" t="n"/>
+      <c r="G4" s="101" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="105" t="n"/>
+      <c r="J4" s="71" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="34" t="n"/>
+      <c r="M4" s="33" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="34" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="33" t="n"/>
+    </row>
+    <row r="5" ht="27" customHeight="1">
+      <c r="A5" s="33" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="109" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="33" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="34" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="33" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="J6" s="71" t="n"/>
+      <c r="K6" s="33" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="33" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="92" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="106" t="n"/>
+      <c r="D7" s="106" t="n"/>
+      <c r="E7" s="106" t="n"/>
+      <c r="F7" s="106" t="n"/>
+      <c r="G7" s="106" t="n"/>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="110" t="n"/>
+      <c r="J7" s="71" t="n"/>
+      <c r="K7" s="33" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="111" t="n"/>
+      <c r="J8" s="71" t="n"/>
+      <c r="K8" s="70" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="M8" s="33" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="81" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="83" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="86" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="71" t="n"/>
+      <c r="K9" s="70" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="M9" s="33" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="112" t="n"/>
+      <c r="B10" s="112" t="n"/>
+      <c r="C10" s="112" t="n"/>
+      <c r="D10" s="112" t="n"/>
+      <c r="E10" s="112" t="n"/>
+      <c r="F10" s="112" t="n"/>
+      <c r="G10" s="112" t="n"/>
+      <c r="H10" s="112" t="n"/>
+      <c r="I10" s="112" t="n"/>
+      <c r="J10" s="71" t="n"/>
+      <c r="K10" s="70" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="M10" s="88" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="111" t="n"/>
+      <c r="J11" s="71" t="n"/>
+      <c r="K11" s="70" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="M11" s="33" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="8" customHeight="1">
+      <c r="A12" s="33" t="n"/>
+      <c r="B12" s="33" t="n"/>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="33" t="n"/>
+      <c r="F12" s="33" t="n"/>
+      <c r="G12" s="33" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="110" t="n"/>
+      <c r="J12" s="71" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="34" t="n"/>
+      <c r="M12" s="33" t="n"/>
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="72" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="113" t="n"/>
+      <c r="C13" s="113" t="n"/>
+      <c r="D13" s="113" t="n"/>
+      <c r="E13" s="113" t="n"/>
+      <c r="F13" s="113" t="n"/>
+      <c r="G13" s="113" t="n"/>
+      <c r="H13" s="113" t="n"/>
+      <c r="I13" s="114" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="114" t="n"/>
+      <c r="L13" s="78" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="113" t="n"/>
+      <c r="N13" s="115" t="n"/>
+      <c r="O13" s="78" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="113" t="n"/>
+      <c r="Q13" s="115" t="n"/>
+    </row>
+    <row r="14" ht="33" customHeight="1">
+      <c r="A14" s="116" t="inlineStr">
+        <is>
+          <t>サポート料金</t>
+        </is>
+      </c>
+      <c r="B14" s="113" t="n"/>
+      <c r="C14" s="113" t="n"/>
+      <c r="D14" s="113" t="n"/>
+      <c r="E14" s="113" t="n"/>
+      <c r="F14" s="113" t="n"/>
+      <c r="G14" s="113" t="n"/>
+      <c r="H14" s="113" t="n"/>
+      <c r="I14" s="115" t="n"/>
+      <c r="J14" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
+      </c>
+      <c r="L14" s="58" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M14" s="113" t="n"/>
+      <c r="N14" s="115" t="n"/>
+      <c r="O14" s="58" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P14" s="113" t="n"/>
+      <c r="Q14" s="115" t="n"/>
+    </row>
+    <row r="15" ht="33" customHeight="1">
+      <c r="A15" s="116" t="inlineStr">
+        <is>
+          <t>広告掲載費</t>
+        </is>
+      </c>
+      <c r="B15" s="113" t="n"/>
+      <c r="C15" s="113" t="n"/>
+      <c r="D15" s="113" t="n"/>
+      <c r="E15" s="113" t="n"/>
+      <c r="F15" s="113" t="n"/>
+      <c r="G15" s="113" t="n"/>
+      <c r="H15" s="113" t="n"/>
+      <c r="I15" s="115" t="n"/>
+      <c r="J15" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="L15" s="58" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M15" s="113" t="n"/>
+      <c r="N15" s="115" t="n"/>
+      <c r="O15" s="58" t="n">
+        <v>60000</v>
+      </c>
+      <c r="P15" s="113" t="n"/>
+      <c r="Q15" s="115" t="n"/>
+    </row>
+    <row r="16" ht="33" customHeight="1">
+      <c r="A16" s="116" t="n"/>
+      <c r="B16" s="113" t="n"/>
+      <c r="C16" s="113" t="n"/>
+      <c r="D16" s="113" t="n"/>
+      <c r="E16" s="113" t="n"/>
+      <c r="F16" s="113" t="n"/>
+      <c r="G16" s="113" t="n"/>
+      <c r="H16" s="113" t="n"/>
+      <c r="I16" s="115" t="n"/>
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="17" t="n"/>
+      <c r="L16" s="58" t="n"/>
+      <c r="M16" s="113" t="n"/>
+      <c r="N16" s="115" t="n"/>
+      <c r="O16" s="58" t="n"/>
+      <c r="P16" s="113" t="n"/>
+      <c r="Q16" s="115" t="n"/>
+    </row>
+    <row r="17" ht="33" customHeight="1">
+      <c r="A17" s="116" t="n"/>
+      <c r="B17" s="113" t="n"/>
+      <c r="C17" s="113" t="n"/>
+      <c r="D17" s="113" t="n"/>
+      <c r="E17" s="113" t="n"/>
+      <c r="F17" s="113" t="n"/>
+      <c r="G17" s="113" t="n"/>
+      <c r="H17" s="113" t="n"/>
+      <c r="I17" s="115" t="n"/>
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="17" t="n"/>
+      <c r="L17" s="58" t="n"/>
+      <c r="M17" s="113" t="n"/>
+      <c r="N17" s="115" t="n"/>
+      <c r="O17" s="58" t="n"/>
+      <c r="P17" s="113" t="n"/>
+      <c r="Q17" s="115" t="n"/>
+    </row>
+    <row r="18" ht="33" customHeight="1">
+      <c r="A18" s="116" t="n"/>
+      <c r="B18" s="113" t="n"/>
+      <c r="C18" s="113" t="n"/>
+      <c r="D18" s="113" t="n"/>
+      <c r="E18" s="113" t="n"/>
+      <c r="F18" s="113" t="n"/>
+      <c r="G18" s="113" t="n"/>
+      <c r="H18" s="113" t="n"/>
+      <c r="I18" s="115" t="n"/>
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="17" t="n"/>
+      <c r="L18" s="58" t="n"/>
+      <c r="M18" s="113" t="n"/>
+      <c r="N18" s="115" t="n"/>
+      <c r="O18" s="58" t="n"/>
+      <c r="P18" s="113" t="n"/>
+      <c r="Q18" s="115" t="n"/>
+    </row>
+    <row r="19" ht="33" customHeight="1">
+      <c r="A19" s="116" t="n"/>
+      <c r="B19" s="113" t="n"/>
+      <c r="C19" s="113" t="n"/>
+      <c r="D19" s="113" t="n"/>
+      <c r="E19" s="113" t="n"/>
+      <c r="F19" s="113" t="n"/>
+      <c r="G19" s="113" t="n"/>
+      <c r="H19" s="113" t="n"/>
+      <c r="I19" s="115" t="n"/>
+      <c r="J19" s="67" t="n"/>
+      <c r="K19" s="17" t="n"/>
+      <c r="L19" s="58" t="n"/>
+      <c r="M19" s="113" t="n"/>
+      <c r="N19" s="115" t="n"/>
+      <c r="O19" s="58" t="n"/>
+      <c r="P19" s="113" t="n"/>
+      <c r="Q19" s="115" t="n"/>
+    </row>
+    <row r="20" ht="33" customHeight="1">
+      <c r="A20" s="116" t="n"/>
+      <c r="B20" s="113" t="n"/>
+      <c r="C20" s="113" t="n"/>
+      <c r="D20" s="113" t="n"/>
+      <c r="E20" s="113" t="n"/>
+      <c r="F20" s="113" t="n"/>
+      <c r="G20" s="113" t="n"/>
+      <c r="H20" s="113" t="n"/>
+      <c r="I20" s="115" t="n"/>
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="17" t="n"/>
+      <c r="L20" s="58" t="n"/>
+      <c r="M20" s="113" t="n"/>
+      <c r="N20" s="115" t="n"/>
+      <c r="O20" s="58" t="n"/>
+      <c r="P20" s="113" t="n"/>
+      <c r="Q20" s="115" t="n"/>
+    </row>
+    <row r="21" ht="33" customHeight="1">
+      <c r="A21" s="116" t="n"/>
+      <c r="B21" s="113" t="n"/>
+      <c r="C21" s="113" t="n"/>
+      <c r="D21" s="113" t="n"/>
+      <c r="E21" s="113" t="n"/>
+      <c r="F21" s="113" t="n"/>
+      <c r="G21" s="113" t="n"/>
+      <c r="H21" s="113" t="n"/>
+      <c r="I21" s="115" t="n"/>
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="17" t="n"/>
+      <c r="L21" s="58" t="n"/>
+      <c r="M21" s="113" t="n"/>
+      <c r="N21" s="115" t="n"/>
+      <c r="O21" s="58" t="n"/>
+      <c r="P21" s="113" t="n"/>
+      <c r="Q21" s="115" t="n"/>
+    </row>
+    <row r="22" ht="33" customHeight="1">
+      <c r="A22" s="116" t="n"/>
+      <c r="B22" s="113" t="n"/>
+      <c r="C22" s="113" t="n"/>
+      <c r="D22" s="113" t="n"/>
+      <c r="E22" s="113" t="n"/>
+      <c r="F22" s="113" t="n"/>
+      <c r="G22" s="113" t="n"/>
+      <c r="H22" s="113" t="n"/>
+      <c r="I22" s="115" t="n"/>
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="17" t="n"/>
+      <c r="L22" s="58" t="n"/>
+      <c r="M22" s="113" t="n"/>
+      <c r="N22" s="115" t="n"/>
+      <c r="O22" s="58" t="n"/>
+      <c r="P22" s="113" t="n"/>
+      <c r="Q22" s="115" t="n"/>
+    </row>
+    <row r="23" ht="33" customHeight="1">
+      <c r="A23" s="116" t="n"/>
+      <c r="B23" s="113" t="n"/>
+      <c r="C23" s="113" t="n"/>
+      <c r="D23" s="113" t="n"/>
+      <c r="E23" s="113" t="n"/>
+      <c r="F23" s="113" t="n"/>
+      <c r="G23" s="113" t="n"/>
+      <c r="H23" s="113" t="n"/>
+      <c r="I23" s="115" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="17" t="n"/>
+      <c r="L23" s="58" t="n"/>
+      <c r="M23" s="113" t="n"/>
+      <c r="N23" s="115" t="n"/>
+      <c r="O23" s="58" t="n"/>
+      <c r="P23" s="113" t="n"/>
+      <c r="Q23" s="115" t="n"/>
+    </row>
+    <row r="24" ht="33" customHeight="1">
+      <c r="A24" s="116" t="n"/>
+      <c r="B24" s="113" t="n"/>
+      <c r="C24" s="113" t="n"/>
+      <c r="D24" s="113" t="n"/>
+      <c r="E24" s="113" t="n"/>
+      <c r="F24" s="113" t="n"/>
+      <c r="G24" s="113" t="n"/>
+      <c r="H24" s="113" t="n"/>
+      <c r="I24" s="115" t="n"/>
+      <c r="J24" s="67" t="n"/>
+      <c r="K24" s="17" t="n"/>
+      <c r="L24" s="58" t="n"/>
+      <c r="M24" s="113" t="n"/>
+      <c r="N24" s="115" t="n"/>
+      <c r="O24" s="58" t="str"/>
+      <c r="P24" s="113" t="n"/>
+      <c r="Q24" s="115" t="n"/>
+    </row>
+    <row r="25" ht="33" customHeight="1">
+      <c r="A25" s="116" t="n"/>
+      <c r="B25" s="113" t="n"/>
+      <c r="C25" s="113" t="n"/>
+      <c r="D25" s="113" t="n"/>
+      <c r="E25" s="113" t="n"/>
+      <c r="F25" s="113" t="n"/>
+      <c r="G25" s="113" t="n"/>
+      <c r="H25" s="113" t="n"/>
+      <c r="I25" s="115" t="n"/>
+      <c r="J25" s="30" t="n"/>
+      <c r="K25" s="17" t="n"/>
+      <c r="L25" s="58" t="n"/>
+      <c r="M25" s="113" t="n"/>
+      <c r="N25" s="115" t="n"/>
+      <c r="O25" s="58" t="str"/>
+      <c r="P25" s="113" t="n"/>
+      <c r="Q25" s="115" t="n"/>
+    </row>
+    <row r="26" ht="35.5" customHeight="1">
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="33" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="33" t="n"/>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="110" t="n"/>
+      <c r="J26" s="55" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="57" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="113" t="n"/>
+      <c r="N26" s="113" t="n"/>
+      <c r="O26" s="113" t="n"/>
+      <c r="P26" s="113" t="n"/>
+      <c r="Q26" s="115" t="n"/>
+    </row>
+    <row r="27" ht="35.5" customHeight="1">
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="33" t="n"/>
+      <c r="C27" s="33" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="33" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="59" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="119" t="n"/>
+      <c r="L27" s="57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="113" t="n"/>
+      <c r="N27" s="113" t="n"/>
+      <c r="O27" s="113" t="n"/>
+      <c r="P27" s="113" t="n"/>
+      <c r="Q27" s="115" t="n"/>
+    </row>
+    <row r="28" ht="35.5" customHeight="1">
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="33" t="n"/>
+      <c r="G28" s="33" t="n"/>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="110" t="n"/>
+      <c r="J28" s="59" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="119" t="n"/>
+      <c r="L28" s="61" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="113" t="n"/>
+      <c r="N28" s="113" t="n"/>
+      <c r="O28" s="113" t="n"/>
+      <c r="P28" s="113" t="n"/>
+      <c r="Q28" s="115" t="n"/>
+    </row>
+    <row r="29" ht="29.5" customHeight="1">
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="33" t="n"/>
+      <c r="G29" s="33" t="n"/>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="110" t="n"/>
+      <c r="J29" s="71" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="33" t="n"/>
+      <c r="N29" s="33" t="n"/>
+      <c r="O29" s="34" t="n"/>
+      <c r="P29" s="33" t="n"/>
+      <c r="Q29" s="33" t="n"/>
+    </row>
+    <row r="30" ht="26.5" customHeight="1">
+      <c r="A30" s="35" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="120" t="n"/>
+      <c r="C30" s="120" t="n"/>
+      <c r="D30" s="120" t="n"/>
+      <c r="E30" s="120" t="n"/>
+      <c r="F30" s="120" t="n"/>
+      <c r="G30" s="120" t="n"/>
+      <c r="H30" s="120" t="n"/>
+      <c r="I30" s="120" t="n"/>
+      <c r="J30" s="120" t="n"/>
+      <c r="K30" s="120" t="n"/>
+      <c r="L30" s="120" t="n"/>
+      <c r="M30" s="120" t="n"/>
+      <c r="N30" s="120" t="n"/>
+      <c r="O30" s="120" t="n"/>
+      <c r="P30" s="120" t="n"/>
+      <c r="Q30" s="121" t="n"/>
+      <c r="R30" s="6" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1">
+      <c r="A31" s="40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="108" t="n"/>
+      <c r="C31" s="108" t="n"/>
+      <c r="D31" s="108" t="n"/>
+      <c r="E31" s="108" t="n"/>
+      <c r="F31" s="108" t="n"/>
+      <c r="G31" s="108" t="n"/>
+      <c r="H31" s="108" t="n"/>
+      <c r="I31" s="108" t="n"/>
+      <c r="J31" s="108" t="n"/>
+      <c r="K31" s="108" t="n"/>
+      <c r="L31" s="108" t="n"/>
+      <c r="M31" s="108" t="n"/>
+      <c r="N31" s="108" t="n"/>
+      <c r="O31" s="108" t="n"/>
+      <c r="P31" s="108" t="n"/>
+      <c r="Q31" s="122" t="n"/>
+      <c r="R31" s="6" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="6" t="n"/>
+      <c r="Q32" s="123" t="n"/>
+      <c r="R32" s="6" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1">
+      <c r="A33" s="6" t="n"/>
+      <c r="Q33" s="123" t="n"/>
+      <c r="R33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="124" t="n"/>
+      <c r="B34" s="125" t="n"/>
+      <c r="C34" s="125" t="n"/>
+      <c r="D34" s="125" t="n"/>
+      <c r="E34" s="125" t="n"/>
+      <c r="F34" s="125" t="n"/>
+      <c r="G34" s="125" t="n"/>
+      <c r="H34" s="125" t="n"/>
+      <c r="I34" s="125" t="n"/>
+      <c r="J34" s="125" t="n"/>
+      <c r="K34" s="125" t="n"/>
+      <c r="L34" s="125" t="n"/>
+      <c r="M34" s="125" t="n"/>
+      <c r="N34" s="125" t="n"/>
+      <c r="O34" s="125" t="n"/>
+      <c r="P34" s="125" t="n"/>
+      <c r="Q34" s="126" t="n"/>
+      <c r="R34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="7" customHeight="1">
+      <c r="A35" s="19" t="n"/>
+      <c r="B35" s="20" t="n"/>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="20" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="20" t="n"/>
+      <c r="H35" s="20" t="n"/>
+      <c r="I35" s="127" t="n"/>
+      <c r="J35" s="31" t="n"/>
+      <c r="K35" s="23" t="n"/>
+      <c r="L35" s="21" t="n"/>
+      <c r="M35" s="20" t="n"/>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="21" t="n"/>
+      <c r="P35" s="20" t="n"/>
+      <c r="Q35" s="20" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customHeight="1">
+      <c r="A36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customHeight="1">
+      <c r="A37" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <cols>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="1" max="3"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="5" max="8"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="104" min="9" max="9"/>
+    <col width="9.1796875" customWidth="1" style="32" min="10" max="10"/>
+    <col width="8.08984375" customWidth="1" style="4" min="11" max="11"/>
+    <col width="8.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="8.453125" customWidth="1" min="13" max="14"/>
+    <col width="8.453125" customWidth="1" style="2" min="15" max="15"/>
+    <col width="8.453125" customWidth="1" min="16" max="17"/>
+    <col width="0.90625" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="71.5" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="94" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="99" t="inlineStr">
+        <is>
+          <t>株式会社E</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="105" t="n"/>
+      <c r="J2" s="71" t="n"/>
+      <c r="K2" s="10" t="n"/>
+      <c r="L2" s="71" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="N2" s="33" t="inlineStr">
+        <is>
+          <t>202407-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="n"/>
+      <c r="C3" s="106" t="n"/>
+      <c r="D3" s="106" t="n"/>
+      <c r="E3" s="106" t="n"/>
+      <c r="F3" s="106" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="101" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="J3" s="71" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="71" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="N3" s="107" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="32.5" customHeight="1">
+      <c r="A4" s="89" t="inlineStr">
+        <is>
+          <t>人事課</t>
+        </is>
+      </c>
+      <c r="B4" s="108" t="n"/>
+      <c r="C4" s="108" t="n"/>
+      <c r="D4" s="108" t="n"/>
+      <c r="E4" s="108" t="n"/>
+      <c r="F4" s="108" t="n"/>
+      <c r="G4" s="101" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="105" t="n"/>
+      <c r="J4" s="71" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="34" t="n"/>
+      <c r="M4" s="33" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="34" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="33" t="n"/>
+    </row>
+    <row r="5" ht="27" customHeight="1">
+      <c r="A5" s="33" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="109" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="33" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="34" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="33" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="J6" s="71" t="n"/>
+      <c r="K6" s="33" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="33" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="92" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="106" t="n"/>
+      <c r="D7" s="106" t="n"/>
+      <c r="E7" s="106" t="n"/>
+      <c r="F7" s="106" t="n"/>
+      <c r="G7" s="106" t="n"/>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="110" t="n"/>
+      <c r="J7" s="71" t="n"/>
+      <c r="K7" s="33" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="111" t="n"/>
+      <c r="J8" s="71" t="n"/>
+      <c r="K8" s="70" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="M8" s="33" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="81" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="83" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="86" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="71" t="n"/>
+      <c r="K9" s="70" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="M9" s="33" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="112" t="n"/>
+      <c r="B10" s="112" t="n"/>
+      <c r="C10" s="112" t="n"/>
+      <c r="D10" s="112" t="n"/>
+      <c r="E10" s="112" t="n"/>
+      <c r="F10" s="112" t="n"/>
+      <c r="G10" s="112" t="n"/>
+      <c r="H10" s="112" t="n"/>
+      <c r="I10" s="112" t="n"/>
+      <c r="J10" s="71" t="n"/>
+      <c r="K10" s="70" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="M10" s="88" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="111" t="n"/>
+      <c r="J11" s="71" t="n"/>
+      <c r="K11" s="70" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="M11" s="33" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="8" customHeight="1">
+      <c r="A12" s="33" t="n"/>
+      <c r="B12" s="33" t="n"/>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="33" t="n"/>
+      <c r="F12" s="33" t="n"/>
+      <c r="G12" s="33" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="110" t="n"/>
+      <c r="J12" s="71" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="34" t="n"/>
+      <c r="M12" s="33" t="n"/>
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="72" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="113" t="n"/>
+      <c r="C13" s="113" t="n"/>
+      <c r="D13" s="113" t="n"/>
+      <c r="E13" s="113" t="n"/>
+      <c r="F13" s="113" t="n"/>
+      <c r="G13" s="113" t="n"/>
+      <c r="H13" s="113" t="n"/>
+      <c r="I13" s="114" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="114" t="n"/>
+      <c r="L13" s="78" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="113" t="n"/>
+      <c r="N13" s="115" t="n"/>
+      <c r="O13" s="78" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="113" t="n"/>
+      <c r="Q13" s="115" t="n"/>
+    </row>
+    <row r="14" ht="33" customHeight="1">
+      <c r="A14" s="116" t="inlineStr">
+        <is>
+          <t>研修費用</t>
+        </is>
+      </c>
+      <c r="B14" s="113" t="n"/>
+      <c r="C14" s="113" t="n"/>
+      <c r="D14" s="113" t="n"/>
+      <c r="E14" s="113" t="n"/>
+      <c r="F14" s="113" t="n"/>
+      <c r="G14" s="113" t="n"/>
+      <c r="H14" s="113" t="n"/>
+      <c r="I14" s="115" t="n"/>
+      <c r="J14" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>ヶ月</t>
+        </is>
+      </c>
+      <c r="L14" s="58" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M14" s="113" t="n"/>
+      <c r="N14" s="115" t="n"/>
+      <c r="O14" s="58" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P14" s="113" t="n"/>
+      <c r="Q14" s="115" t="n"/>
+    </row>
+    <row r="15" ht="33" customHeight="1">
+      <c r="A15" s="116" t="inlineStr">
+        <is>
+          <t>レンタル料</t>
+        </is>
+      </c>
+      <c r="B15" s="113" t="n"/>
+      <c r="C15" s="113" t="n"/>
+      <c r="D15" s="113" t="n"/>
+      <c r="E15" s="113" t="n"/>
+      <c r="F15" s="113" t="n"/>
+      <c r="G15" s="113" t="n"/>
+      <c r="H15" s="113" t="n"/>
+      <c r="I15" s="115" t="n"/>
+      <c r="J15" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="L15" s="58" t="n">
+        <v>300000</v>
+      </c>
+      <c r="M15" s="113" t="n"/>
+      <c r="N15" s="115" t="n"/>
+      <c r="O15" s="58" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P15" s="113" t="n"/>
+      <c r="Q15" s="115" t="n"/>
+    </row>
+    <row r="16" ht="33" customHeight="1">
+      <c r="A16" s="116" t="n"/>
+      <c r="B16" s="113" t="n"/>
+      <c r="C16" s="113" t="n"/>
+      <c r="D16" s="113" t="n"/>
+      <c r="E16" s="113" t="n"/>
+      <c r="F16" s="113" t="n"/>
+      <c r="G16" s="113" t="n"/>
+      <c r="H16" s="113" t="n"/>
+      <c r="I16" s="115" t="n"/>
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="17" t="n"/>
+      <c r="L16" s="58" t="n"/>
+      <c r="M16" s="113" t="n"/>
+      <c r="N16" s="115" t="n"/>
+      <c r="O16" s="58" t="n"/>
+      <c r="P16" s="113" t="n"/>
+      <c r="Q16" s="115" t="n"/>
+    </row>
+    <row r="17" ht="33" customHeight="1">
+      <c r="A17" s="116" t="n"/>
+      <c r="B17" s="113" t="n"/>
+      <c r="C17" s="113" t="n"/>
+      <c r="D17" s="113" t="n"/>
+      <c r="E17" s="113" t="n"/>
+      <c r="F17" s="113" t="n"/>
+      <c r="G17" s="113" t="n"/>
+      <c r="H17" s="113" t="n"/>
+      <c r="I17" s="115" t="n"/>
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="17" t="n"/>
+      <c r="L17" s="58" t="n"/>
+      <c r="M17" s="113" t="n"/>
+      <c r="N17" s="115" t="n"/>
+      <c r="O17" s="58" t="n"/>
+      <c r="P17" s="113" t="n"/>
+      <c r="Q17" s="115" t="n"/>
+    </row>
+    <row r="18" ht="33" customHeight="1">
+      <c r="A18" s="116" t="n"/>
+      <c r="B18" s="113" t="n"/>
+      <c r="C18" s="113" t="n"/>
+      <c r="D18" s="113" t="n"/>
+      <c r="E18" s="113" t="n"/>
+      <c r="F18" s="113" t="n"/>
+      <c r="G18" s="113" t="n"/>
+      <c r="H18" s="113" t="n"/>
+      <c r="I18" s="115" t="n"/>
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="17" t="n"/>
+      <c r="L18" s="58" t="n"/>
+      <c r="M18" s="113" t="n"/>
+      <c r="N18" s="115" t="n"/>
+      <c r="O18" s="58" t="n"/>
+      <c r="P18" s="113" t="n"/>
+      <c r="Q18" s="115" t="n"/>
+    </row>
+    <row r="19" ht="33" customHeight="1">
+      <c r="A19" s="116" t="n"/>
+      <c r="B19" s="113" t="n"/>
+      <c r="C19" s="113" t="n"/>
+      <c r="D19" s="113" t="n"/>
+      <c r="E19" s="113" t="n"/>
+      <c r="F19" s="113" t="n"/>
+      <c r="G19" s="113" t="n"/>
+      <c r="H19" s="113" t="n"/>
+      <c r="I19" s="115" t="n"/>
+      <c r="J19" s="67" t="n"/>
+      <c r="K19" s="17" t="n"/>
+      <c r="L19" s="58" t="n"/>
+      <c r="M19" s="113" t="n"/>
+      <c r="N19" s="115" t="n"/>
+      <c r="O19" s="58" t="n"/>
+      <c r="P19" s="113" t="n"/>
+      <c r="Q19" s="115" t="n"/>
+    </row>
+    <row r="20" ht="33" customHeight="1">
+      <c r="A20" s="116" t="n"/>
+      <c r="B20" s="113" t="n"/>
+      <c r="C20" s="113" t="n"/>
+      <c r="D20" s="113" t="n"/>
+      <c r="E20" s="113" t="n"/>
+      <c r="F20" s="113" t="n"/>
+      <c r="G20" s="113" t="n"/>
+      <c r="H20" s="113" t="n"/>
+      <c r="I20" s="115" t="n"/>
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="17" t="n"/>
+      <c r="L20" s="58" t="n"/>
+      <c r="M20" s="113" t="n"/>
+      <c r="N20" s="115" t="n"/>
+      <c r="O20" s="58" t="n"/>
+      <c r="P20" s="113" t="n"/>
+      <c r="Q20" s="115" t="n"/>
+    </row>
+    <row r="21" ht="33" customHeight="1">
+      <c r="A21" s="116" t="n"/>
+      <c r="B21" s="113" t="n"/>
+      <c r="C21" s="113" t="n"/>
+      <c r="D21" s="113" t="n"/>
+      <c r="E21" s="113" t="n"/>
+      <c r="F21" s="113" t="n"/>
+      <c r="G21" s="113" t="n"/>
+      <c r="H21" s="113" t="n"/>
+      <c r="I21" s="115" t="n"/>
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="17" t="n"/>
+      <c r="L21" s="58" t="n"/>
+      <c r="M21" s="113" t="n"/>
+      <c r="N21" s="115" t="n"/>
+      <c r="O21" s="58" t="n"/>
+      <c r="P21" s="113" t="n"/>
+      <c r="Q21" s="115" t="n"/>
+    </row>
+    <row r="22" ht="33" customHeight="1">
+      <c r="A22" s="116" t="n"/>
+      <c r="B22" s="113" t="n"/>
+      <c r="C22" s="113" t="n"/>
+      <c r="D22" s="113" t="n"/>
+      <c r="E22" s="113" t="n"/>
+      <c r="F22" s="113" t="n"/>
+      <c r="G22" s="113" t="n"/>
+      <c r="H22" s="113" t="n"/>
+      <c r="I22" s="115" t="n"/>
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="17" t="n"/>
+      <c r="L22" s="58" t="n"/>
+      <c r="M22" s="113" t="n"/>
+      <c r="N22" s="115" t="n"/>
+      <c r="O22" s="58" t="n"/>
+      <c r="P22" s="113" t="n"/>
+      <c r="Q22" s="115" t="n"/>
+    </row>
+    <row r="23" ht="33" customHeight="1">
+      <c r="A23" s="116" t="n"/>
+      <c r="B23" s="113" t="n"/>
+      <c r="C23" s="113" t="n"/>
+      <c r="D23" s="113" t="n"/>
+      <c r="E23" s="113" t="n"/>
+      <c r="F23" s="113" t="n"/>
+      <c r="G23" s="113" t="n"/>
+      <c r="H23" s="113" t="n"/>
+      <c r="I23" s="115" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="17" t="n"/>
+      <c r="L23" s="58" t="n"/>
+      <c r="M23" s="113" t="n"/>
+      <c r="N23" s="115" t="n"/>
+      <c r="O23" s="58" t="n"/>
+      <c r="P23" s="113" t="n"/>
+      <c r="Q23" s="115" t="n"/>
+    </row>
+    <row r="24" ht="33" customHeight="1">
+      <c r="A24" s="116" t="n"/>
+      <c r="B24" s="113" t="n"/>
+      <c r="C24" s="113" t="n"/>
+      <c r="D24" s="113" t="n"/>
+      <c r="E24" s="113" t="n"/>
+      <c r="F24" s="113" t="n"/>
+      <c r="G24" s="113" t="n"/>
+      <c r="H24" s="113" t="n"/>
+      <c r="I24" s="115" t="n"/>
+      <c r="J24" s="67" t="n"/>
+      <c r="K24" s="17" t="n"/>
+      <c r="L24" s="58" t="n"/>
+      <c r="M24" s="113" t="n"/>
+      <c r="N24" s="115" t="n"/>
+      <c r="O24" s="58" t="str"/>
+      <c r="P24" s="113" t="n"/>
+      <c r="Q24" s="115" t="n"/>
+    </row>
+    <row r="25" ht="33" customHeight="1">
+      <c r="A25" s="116" t="n"/>
+      <c r="B25" s="113" t="n"/>
+      <c r="C25" s="113" t="n"/>
+      <c r="D25" s="113" t="n"/>
+      <c r="E25" s="113" t="n"/>
+      <c r="F25" s="113" t="n"/>
+      <c r="G25" s="113" t="n"/>
+      <c r="H25" s="113" t="n"/>
+      <c r="I25" s="115" t="n"/>
+      <c r="J25" s="30" t="n"/>
+      <c r="K25" s="17" t="n"/>
+      <c r="L25" s="58" t="n"/>
+      <c r="M25" s="113" t="n"/>
+      <c r="N25" s="115" t="n"/>
+      <c r="O25" s="58" t="str"/>
+      <c r="P25" s="113" t="n"/>
+      <c r="Q25" s="115" t="n"/>
+    </row>
+    <row r="26" ht="35.5" customHeight="1">
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="33" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="33" t="n"/>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="110" t="n"/>
+      <c r="J26" s="55" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="57" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="113" t="n"/>
+      <c r="N26" s="113" t="n"/>
+      <c r="O26" s="113" t="n"/>
+      <c r="P26" s="113" t="n"/>
+      <c r="Q26" s="115" t="n"/>
+    </row>
+    <row r="27" ht="35.5" customHeight="1">
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="33" t="n"/>
+      <c r="C27" s="33" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="33" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="59" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="119" t="n"/>
+      <c r="L27" s="57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="113" t="n"/>
+      <c r="N27" s="113" t="n"/>
+      <c r="O27" s="113" t="n"/>
+      <c r="P27" s="113" t="n"/>
+      <c r="Q27" s="115" t="n"/>
+    </row>
+    <row r="28" ht="35.5" customHeight="1">
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="33" t="n"/>
+      <c r="G28" s="33" t="n"/>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="110" t="n"/>
+      <c r="J28" s="59" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="119" t="n"/>
+      <c r="L28" s="61" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="113" t="n"/>
+      <c r="N28" s="113" t="n"/>
+      <c r="O28" s="113" t="n"/>
+      <c r="P28" s="113" t="n"/>
+      <c r="Q28" s="115" t="n"/>
+    </row>
+    <row r="29" ht="29.5" customHeight="1">
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="33" t="n"/>
+      <c r="G29" s="33" t="n"/>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="110" t="n"/>
+      <c r="J29" s="71" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="33" t="n"/>
+      <c r="N29" s="33" t="n"/>
+      <c r="O29" s="34" t="n"/>
+      <c r="P29" s="33" t="n"/>
+      <c r="Q29" s="33" t="n"/>
+    </row>
+    <row r="30" ht="26.5" customHeight="1">
+      <c r="A30" s="35" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="120" t="n"/>
+      <c r="C30" s="120" t="n"/>
+      <c r="D30" s="120" t="n"/>
+      <c r="E30" s="120" t="n"/>
+      <c r="F30" s="120" t="n"/>
+      <c r="G30" s="120" t="n"/>
+      <c r="H30" s="120" t="n"/>
+      <c r="I30" s="120" t="n"/>
+      <c r="J30" s="120" t="n"/>
+      <c r="K30" s="120" t="n"/>
+      <c r="L30" s="120" t="n"/>
+      <c r="M30" s="120" t="n"/>
+      <c r="N30" s="120" t="n"/>
+      <c r="O30" s="120" t="n"/>
+      <c r="P30" s="120" t="n"/>
+      <c r="Q30" s="121" t="n"/>
+      <c r="R30" s="6" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1">
+      <c r="A31" s="40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="108" t="n"/>
+      <c r="C31" s="108" t="n"/>
+      <c r="D31" s="108" t="n"/>
+      <c r="E31" s="108" t="n"/>
+      <c r="F31" s="108" t="n"/>
+      <c r="G31" s="108" t="n"/>
+      <c r="H31" s="108" t="n"/>
+      <c r="I31" s="108" t="n"/>
+      <c r="J31" s="108" t="n"/>
+      <c r="K31" s="108" t="n"/>
+      <c r="L31" s="108" t="n"/>
+      <c r="M31" s="108" t="n"/>
+      <c r="N31" s="108" t="n"/>
+      <c r="O31" s="108" t="n"/>
+      <c r="P31" s="108" t="n"/>
+      <c r="Q31" s="122" t="n"/>
+      <c r="R31" s="6" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="6" t="n"/>
+      <c r="Q32" s="123" t="n"/>
+      <c r="R32" s="6" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1">
+      <c r="A33" s="6" t="n"/>
+      <c r="Q33" s="123" t="n"/>
+      <c r="R33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="124" t="n"/>
+      <c r="B34" s="125" t="n"/>
+      <c r="C34" s="125" t="n"/>
+      <c r="D34" s="125" t="n"/>
+      <c r="E34" s="125" t="n"/>
+      <c r="F34" s="125" t="n"/>
+      <c r="G34" s="125" t="n"/>
+      <c r="H34" s="125" t="n"/>
+      <c r="I34" s="125" t="n"/>
+      <c r="J34" s="125" t="n"/>
+      <c r="K34" s="125" t="n"/>
+      <c r="L34" s="125" t="n"/>
+      <c r="M34" s="125" t="n"/>
+      <c r="N34" s="125" t="n"/>
+      <c r="O34" s="125" t="n"/>
+      <c r="P34" s="125" t="n"/>
+      <c r="Q34" s="126" t="n"/>
+      <c r="R34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="7" customHeight="1">
+      <c r="A35" s="19" t="n"/>
+      <c r="B35" s="20" t="n"/>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="20" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="20" t="n"/>
+      <c r="H35" s="20" t="n"/>
+      <c r="I35" s="127" t="n"/>
+      <c r="J35" s="31" t="n"/>
+      <c r="K35" s="23" t="n"/>
+      <c r="L35" s="21" t="n"/>
+      <c r="M35" s="20" t="n"/>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="21" t="n"/>
+      <c r="P35" s="20" t="n"/>
+      <c r="Q35" s="20" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customHeight="1">
+      <c r="A36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customHeight="1">
+      <c r="A37" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13"/>
+  <cols>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="1" max="3"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" min="5" max="8"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="104" min="9" max="9"/>
+    <col width="9.1796875" customWidth="1" style="32" min="10" max="10"/>
+    <col width="8.08984375" customWidth="1" style="4" min="11" max="11"/>
+    <col width="8.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="8.453125" customWidth="1" min="13" max="14"/>
+    <col width="8.453125" customWidth="1" style="2" min="15" max="15"/>
+    <col width="8.453125" customWidth="1" min="16" max="17"/>
+    <col width="0.90625" customWidth="1" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="71.5" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="94" t="inlineStr">
+        <is>
+          <t>請　求　書</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="99" t="inlineStr">
+        <is>
+          <t>株式会社F</t>
+        </is>
+      </c>
+      <c r="H2" s="26" t="n"/>
+      <c r="I2" s="105" t="n"/>
+      <c r="J2" s="71" t="n"/>
+      <c r="K2" s="10" t="n"/>
+      <c r="L2" s="71" t="inlineStr">
+        <is>
+          <t>番号：</t>
+        </is>
+      </c>
+      <c r="N2" s="33" t="inlineStr">
+        <is>
+          <t>202407-005</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="25.5" customHeight="1">
+      <c r="A3" s="106" t="n"/>
+      <c r="B3" s="106" t="n"/>
+      <c r="C3" s="106" t="n"/>
+      <c r="D3" s="106" t="n"/>
+      <c r="E3" s="106" t="n"/>
+      <c r="F3" s="106" t="n"/>
+      <c r="G3" s="106" t="n"/>
+      <c r="H3" s="101" t="inlineStr">
+        <is>
+          <t>御中</t>
+        </is>
+      </c>
+      <c r="J3" s="71" t="n"/>
+      <c r="K3" s="10" t="n"/>
+      <c r="L3" s="71" t="inlineStr">
+        <is>
+          <t>請求日：</t>
+        </is>
+      </c>
+      <c r="N3" s="107" t="inlineStr">
+        <is>
+          <t>2024年07月31日</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="32.5" customHeight="1">
+      <c r="A4" s="89" t="inlineStr">
+        <is>
+          <t>総務部  会津若松</t>
+        </is>
+      </c>
+      <c r="B4" s="108" t="n"/>
+      <c r="C4" s="108" t="n"/>
+      <c r="D4" s="108" t="n"/>
+      <c r="E4" s="108" t="n"/>
+      <c r="F4" s="108" t="n"/>
+      <c r="G4" s="101" t="inlineStr">
+        <is>
+          <t>様</t>
+        </is>
+      </c>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="105" t="n"/>
+      <c r="J4" s="71" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="34" t="n"/>
+      <c r="M4" s="33" t="n"/>
+      <c r="N4" s="33" t="n"/>
+      <c r="O4" s="34" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="33" t="n"/>
+    </row>
+    <row r="5" ht="27" customHeight="1">
+      <c r="A5" s="33" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="109" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="33" t="inlineStr">
+        <is>
+          <t>○○株式会社</t>
+        </is>
+      </c>
+      <c r="N5" s="33" t="n"/>
+      <c r="O5" s="34" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="A6" s="33" t="inlineStr">
+        <is>
+          <t>下記の通り、ご請求申し上げます。</t>
+        </is>
+      </c>
+      <c r="J6" s="71" t="n"/>
+      <c r="K6" s="33" t="inlineStr">
+        <is>
+          <t>〒000-0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1">
+      <c r="A7" s="33" t="inlineStr">
+        <is>
+          <t>件名:</t>
+        </is>
+      </c>
+      <c r="B7" s="92" t="inlineStr">
+        <is>
+          <t>7月分請求書</t>
+        </is>
+      </c>
+      <c r="C7" s="106" t="n"/>
+      <c r="D7" s="106" t="n"/>
+      <c r="E7" s="106" t="n"/>
+      <c r="F7" s="106" t="n"/>
+      <c r="G7" s="106" t="n"/>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="110" t="n"/>
+      <c r="J7" s="71" t="n"/>
+      <c r="K7" s="33" t="inlineStr">
+        <is>
+          <t>○○県○○市○○　○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="111" t="n"/>
+      <c r="J8" s="71" t="n"/>
+      <c r="K8" s="70" t="inlineStr">
+        <is>
+          <t>TEL：</t>
+        </is>
+      </c>
+      <c r="M8" s="33" t="inlineStr">
+        <is>
+          <t>0191-xx-xxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="81" t="inlineStr">
+        <is>
+          <t>ご請求金額</t>
+        </is>
+      </c>
+      <c r="D9" s="83" t="n">
+        <v>110000</v>
+      </c>
+      <c r="H9" s="86" t="inlineStr">
+        <is>
+          <t>（税込）</t>
+        </is>
+      </c>
+      <c r="J9" s="71" t="n"/>
+      <c r="K9" s="70" t="inlineStr">
+        <is>
+          <t>FAX：</t>
+        </is>
+      </c>
+      <c r="M9" s="33" t="inlineStr">
+        <is>
+          <t>0191-yy-yyyy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1">
+      <c r="A10" s="112" t="n"/>
+      <c r="B10" s="112" t="n"/>
+      <c r="C10" s="112" t="n"/>
+      <c r="D10" s="112" t="n"/>
+      <c r="E10" s="112" t="n"/>
+      <c r="F10" s="112" t="n"/>
+      <c r="G10" s="112" t="n"/>
+      <c r="H10" s="112" t="n"/>
+      <c r="I10" s="112" t="n"/>
+      <c r="J10" s="71" t="n"/>
+      <c r="K10" s="70" t="inlineStr">
+        <is>
+          <t>E-Mail：</t>
+        </is>
+      </c>
+      <c r="M10" s="88" t="inlineStr">
+        <is>
+          <t>test@zzz.co.jp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="111" t="n"/>
+      <c r="J11" s="71" t="n"/>
+      <c r="K11" s="70" t="inlineStr">
+        <is>
+          <t>担当：</t>
+        </is>
+      </c>
+      <c r="M11" s="33" t="inlineStr">
+        <is>
+          <t>○○</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="8" customHeight="1">
+      <c r="A12" s="33" t="n"/>
+      <c r="B12" s="33" t="n"/>
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="34" t="n"/>
+      <c r="E12" s="33" t="n"/>
+      <c r="F12" s="33" t="n"/>
+      <c r="G12" s="33" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="110" t="n"/>
+      <c r="J12" s="71" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="34" t="n"/>
+      <c r="M12" s="33" t="n"/>
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="72" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="B13" s="113" t="n"/>
+      <c r="C13" s="113" t="n"/>
+      <c r="D13" s="113" t="n"/>
+      <c r="E13" s="113" t="n"/>
+      <c r="F13" s="113" t="n"/>
+      <c r="G13" s="113" t="n"/>
+      <c r="H13" s="113" t="n"/>
+      <c r="I13" s="114" t="n"/>
+      <c r="J13" s="76" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="K13" s="114" t="n"/>
+      <c r="L13" s="78" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="M13" s="113" t="n"/>
+      <c r="N13" s="115" t="n"/>
+      <c r="O13" s="78" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+      <c r="P13" s="113" t="n"/>
+      <c r="Q13" s="115" t="n"/>
+    </row>
+    <row r="14" ht="33" customHeight="1">
+      <c r="A14" s="116" t="inlineStr">
+        <is>
+          <t>レンタル料</t>
+        </is>
+      </c>
+      <c r="B14" s="113" t="n"/>
+      <c r="C14" s="113" t="n"/>
+      <c r="D14" s="113" t="n"/>
+      <c r="E14" s="113" t="n"/>
+      <c r="F14" s="113" t="n"/>
+      <c r="G14" s="113" t="n"/>
+      <c r="H14" s="113" t="n"/>
+      <c r="I14" s="115" t="n"/>
+      <c r="J14" s="67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="L14" s="58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M14" s="113" t="n"/>
+      <c r="N14" s="115" t="n"/>
+      <c r="O14" s="58" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P14" s="113" t="n"/>
+      <c r="Q14" s="115" t="n"/>
+    </row>
+    <row r="15" ht="33" customHeight="1">
+      <c r="A15" s="116" t="inlineStr">
+        <is>
+          <t>商品販売代金</t>
+        </is>
+      </c>
+      <c r="B15" s="113" t="n"/>
+      <c r="C15" s="113" t="n"/>
+      <c r="D15" s="113" t="n"/>
+      <c r="E15" s="113" t="n"/>
+      <c r="F15" s="113" t="n"/>
+      <c r="G15" s="113" t="n"/>
+      <c r="H15" s="113" t="n"/>
+      <c r="I15" s="115" t="n"/>
+      <c r="J15" s="67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="L15" s="58" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M15" s="113" t="n"/>
+      <c r="N15" s="115" t="n"/>
+      <c r="O15" s="58" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P15" s="113" t="n"/>
+      <c r="Q15" s="115" t="n"/>
+    </row>
+    <row r="16" ht="33" customHeight="1">
+      <c r="A16" s="116" t="n"/>
+      <c r="B16" s="113" t="n"/>
+      <c r="C16" s="113" t="n"/>
+      <c r="D16" s="113" t="n"/>
+      <c r="E16" s="113" t="n"/>
+      <c r="F16" s="113" t="n"/>
+      <c r="G16" s="113" t="n"/>
+      <c r="H16" s="113" t="n"/>
+      <c r="I16" s="115" t="n"/>
+      <c r="J16" s="67" t="n"/>
+      <c r="K16" s="17" t="n"/>
+      <c r="L16" s="58" t="n"/>
+      <c r="M16" s="113" t="n"/>
+      <c r="N16" s="115" t="n"/>
+      <c r="O16" s="58" t="n"/>
+      <c r="P16" s="113" t="n"/>
+      <c r="Q16" s="115" t="n"/>
+    </row>
+    <row r="17" ht="33" customHeight="1">
+      <c r="A17" s="116" t="n"/>
+      <c r="B17" s="113" t="n"/>
+      <c r="C17" s="113" t="n"/>
+      <c r="D17" s="113" t="n"/>
+      <c r="E17" s="113" t="n"/>
+      <c r="F17" s="113" t="n"/>
+      <c r="G17" s="113" t="n"/>
+      <c r="H17" s="113" t="n"/>
+      <c r="I17" s="115" t="n"/>
+      <c r="J17" s="67" t="n"/>
+      <c r="K17" s="17" t="n"/>
+      <c r="L17" s="58" t="n"/>
+      <c r="M17" s="113" t="n"/>
+      <c r="N17" s="115" t="n"/>
+      <c r="O17" s="58" t="n"/>
+      <c r="P17" s="113" t="n"/>
+      <c r="Q17" s="115" t="n"/>
+    </row>
+    <row r="18" ht="33" customHeight="1">
+      <c r="A18" s="116" t="n"/>
+      <c r="B18" s="113" t="n"/>
+      <c r="C18" s="113" t="n"/>
+      <c r="D18" s="113" t="n"/>
+      <c r="E18" s="113" t="n"/>
+      <c r="F18" s="113" t="n"/>
+      <c r="G18" s="113" t="n"/>
+      <c r="H18" s="113" t="n"/>
+      <c r="I18" s="115" t="n"/>
+      <c r="J18" s="67" t="n"/>
+      <c r="K18" s="17" t="n"/>
+      <c r="L18" s="58" t="n"/>
+      <c r="M18" s="113" t="n"/>
+      <c r="N18" s="115" t="n"/>
+      <c r="O18" s="58" t="n"/>
+      <c r="P18" s="113" t="n"/>
+      <c r="Q18" s="115" t="n"/>
+    </row>
+    <row r="19" ht="33" customHeight="1">
+      <c r="A19" s="116" t="n"/>
+      <c r="B19" s="113" t="n"/>
+      <c r="C19" s="113" t="n"/>
+      <c r="D19" s="113" t="n"/>
+      <c r="E19" s="113" t="n"/>
+      <c r="F19" s="113" t="n"/>
+      <c r="G19" s="113" t="n"/>
+      <c r="H19" s="113" t="n"/>
+      <c r="I19" s="115" t="n"/>
+      <c r="J19" s="67" t="n"/>
+      <c r="K19" s="17" t="n"/>
+      <c r="L19" s="58" t="n"/>
+      <c r="M19" s="113" t="n"/>
+      <c r="N19" s="115" t="n"/>
+      <c r="O19" s="58" t="n"/>
+      <c r="P19" s="113" t="n"/>
+      <c r="Q19" s="115" t="n"/>
+    </row>
+    <row r="20" ht="33" customHeight="1">
+      <c r="A20" s="116" t="n"/>
+      <c r="B20" s="113" t="n"/>
+      <c r="C20" s="113" t="n"/>
+      <c r="D20" s="113" t="n"/>
+      <c r="E20" s="113" t="n"/>
+      <c r="F20" s="113" t="n"/>
+      <c r="G20" s="113" t="n"/>
+      <c r="H20" s="113" t="n"/>
+      <c r="I20" s="115" t="n"/>
+      <c r="J20" s="67" t="n"/>
+      <c r="K20" s="17" t="n"/>
+      <c r="L20" s="58" t="n"/>
+      <c r="M20" s="113" t="n"/>
+      <c r="N20" s="115" t="n"/>
+      <c r="O20" s="58" t="n"/>
+      <c r="P20" s="113" t="n"/>
+      <c r="Q20" s="115" t="n"/>
+    </row>
+    <row r="21" ht="33" customHeight="1">
+      <c r="A21" s="116" t="n"/>
+      <c r="B21" s="113" t="n"/>
+      <c r="C21" s="113" t="n"/>
+      <c r="D21" s="113" t="n"/>
+      <c r="E21" s="113" t="n"/>
+      <c r="F21" s="113" t="n"/>
+      <c r="G21" s="113" t="n"/>
+      <c r="H21" s="113" t="n"/>
+      <c r="I21" s="115" t="n"/>
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="17" t="n"/>
+      <c r="L21" s="58" t="n"/>
+      <c r="M21" s="113" t="n"/>
+      <c r="N21" s="115" t="n"/>
+      <c r="O21" s="58" t="n"/>
+      <c r="P21" s="113" t="n"/>
+      <c r="Q21" s="115" t="n"/>
+    </row>
+    <row r="22" ht="33" customHeight="1">
+      <c r="A22" s="116" t="n"/>
+      <c r="B22" s="113" t="n"/>
+      <c r="C22" s="113" t="n"/>
+      <c r="D22" s="113" t="n"/>
+      <c r="E22" s="113" t="n"/>
+      <c r="F22" s="113" t="n"/>
+      <c r="G22" s="113" t="n"/>
+      <c r="H22" s="113" t="n"/>
+      <c r="I22" s="115" t="n"/>
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="17" t="n"/>
+      <c r="L22" s="58" t="n"/>
+      <c r="M22" s="113" t="n"/>
+      <c r="N22" s="115" t="n"/>
+      <c r="O22" s="58" t="n"/>
+      <c r="P22" s="113" t="n"/>
+      <c r="Q22" s="115" t="n"/>
+    </row>
+    <row r="23" ht="33" customHeight="1">
+      <c r="A23" s="116" t="n"/>
+      <c r="B23" s="113" t="n"/>
+      <c r="C23" s="113" t="n"/>
+      <c r="D23" s="113" t="n"/>
+      <c r="E23" s="113" t="n"/>
+      <c r="F23" s="113" t="n"/>
+      <c r="G23" s="113" t="n"/>
+      <c r="H23" s="113" t="n"/>
+      <c r="I23" s="115" t="n"/>
+      <c r="J23" s="67" t="n"/>
+      <c r="K23" s="17" t="n"/>
+      <c r="L23" s="58" t="n"/>
+      <c r="M23" s="113" t="n"/>
+      <c r="N23" s="115" t="n"/>
+      <c r="O23" s="58" t="n"/>
+      <c r="P23" s="113" t="n"/>
+      <c r="Q23" s="115" t="n"/>
+    </row>
+    <row r="24" ht="33" customHeight="1">
+      <c r="A24" s="116" t="n"/>
+      <c r="B24" s="113" t="n"/>
+      <c r="C24" s="113" t="n"/>
+      <c r="D24" s="113" t="n"/>
+      <c r="E24" s="113" t="n"/>
+      <c r="F24" s="113" t="n"/>
+      <c r="G24" s="113" t="n"/>
+      <c r="H24" s="113" t="n"/>
+      <c r="I24" s="115" t="n"/>
+      <c r="J24" s="67" t="n"/>
+      <c r="K24" s="17" t="n"/>
+      <c r="L24" s="58" t="n"/>
+      <c r="M24" s="113" t="n"/>
+      <c r="N24" s="115" t="n"/>
+      <c r="O24" s="58" t="str"/>
+      <c r="P24" s="113" t="n"/>
+      <c r="Q24" s="115" t="n"/>
+    </row>
+    <row r="25" ht="33" customHeight="1">
+      <c r="A25" s="116" t="n"/>
+      <c r="B25" s="113" t="n"/>
+      <c r="C25" s="113" t="n"/>
+      <c r="D25" s="113" t="n"/>
+      <c r="E25" s="113" t="n"/>
+      <c r="F25" s="113" t="n"/>
+      <c r="G25" s="113" t="n"/>
+      <c r="H25" s="113" t="n"/>
+      <c r="I25" s="115" t="n"/>
+      <c r="J25" s="30" t="n"/>
+      <c r="K25" s="17" t="n"/>
+      <c r="L25" s="58" t="n"/>
+      <c r="M25" s="113" t="n"/>
+      <c r="N25" s="115" t="n"/>
+      <c r="O25" s="58" t="str"/>
+      <c r="P25" s="113" t="n"/>
+      <c r="Q25" s="115" t="n"/>
+    </row>
+    <row r="26" ht="35.5" customHeight="1">
+      <c r="A26" s="33" t="n"/>
+      <c r="B26" s="33" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="34" t="n"/>
+      <c r="E26" s="33" t="n"/>
+      <c r="F26" s="33" t="n"/>
+      <c r="G26" s="33" t="n"/>
+      <c r="H26" s="33" t="n"/>
+      <c r="I26" s="110" t="n"/>
+      <c r="J26" s="55" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="57" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M26" s="113" t="n"/>
+      <c r="N26" s="113" t="n"/>
+      <c r="O26" s="113" t="n"/>
+      <c r="P26" s="113" t="n"/>
+      <c r="Q26" s="115" t="n"/>
+    </row>
+    <row r="27" ht="35.5" customHeight="1">
+      <c r="A27" s="33" t="n"/>
+      <c r="B27" s="33" t="n"/>
+      <c r="C27" s="33" t="n"/>
+      <c r="D27" s="34" t="n"/>
+      <c r="E27" s="33" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>税率</t>
+        </is>
+      </c>
+      <c r="I27" s="118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="59" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="K27" s="119" t="n"/>
+      <c r="L27" s="57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M27" s="113" t="n"/>
+      <c r="N27" s="113" t="n"/>
+      <c r="O27" s="113" t="n"/>
+      <c r="P27" s="113" t="n"/>
+      <c r="Q27" s="115" t="n"/>
+    </row>
+    <row r="28" ht="35.5" customHeight="1">
+      <c r="A28" s="33" t="n"/>
+      <c r="B28" s="33" t="n"/>
+      <c r="G28" s="33" t="n"/>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="110" t="n"/>
+      <c r="J28" s="59" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="K28" s="119" t="n"/>
+      <c r="L28" s="61" t="n">
+        <v>110000</v>
+      </c>
+      <c r="M28" s="113" t="n"/>
+      <c r="N28" s="113" t="n"/>
+      <c r="O28" s="113" t="n"/>
+      <c r="P28" s="113" t="n"/>
+      <c r="Q28" s="115" t="n"/>
+    </row>
+    <row r="29" ht="29.5" customHeight="1">
+      <c r="A29" s="33" t="n"/>
+      <c r="B29" s="33" t="n"/>
+      <c r="G29" s="33" t="n"/>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="110" t="n"/>
+      <c r="J29" s="71" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="33" t="n"/>
+      <c r="N29" s="33" t="n"/>
+      <c r="O29" s="34" t="n"/>
+      <c r="P29" s="33" t="n"/>
+      <c r="Q29" s="33" t="n"/>
+    </row>
+    <row r="30" ht="26.5" customHeight="1">
+      <c r="A30" s="35" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="B30" s="120" t="n"/>
+      <c r="C30" s="120" t="n"/>
+      <c r="D30" s="120" t="n"/>
+      <c r="E30" s="120" t="n"/>
+      <c r="F30" s="120" t="n"/>
+      <c r="G30" s="120" t="n"/>
+      <c r="H30" s="120" t="n"/>
+      <c r="I30" s="120" t="n"/>
+      <c r="J30" s="120" t="n"/>
+      <c r="K30" s="120" t="n"/>
+      <c r="L30" s="120" t="n"/>
+      <c r="M30" s="120" t="n"/>
+      <c r="N30" s="120" t="n"/>
+      <c r="O30" s="120" t="n"/>
+      <c r="P30" s="120" t="n"/>
+      <c r="Q30" s="121" t="n"/>
+      <c r="R30" s="6" t="n"/>
+    </row>
+    <row r="31" ht="20.15" customHeight="1">
+      <c r="A31" s="40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">振込手数料：振込手数料は貴社負担にてお願いいたします。
+お振込先：　○○銀行　○○支店
+</t>
+        </is>
+      </c>
+      <c r="B31" s="108" t="n"/>
+      <c r="C31" s="108" t="n"/>
+      <c r="D31" s="108" t="n"/>
+      <c r="E31" s="108" t="n"/>
+      <c r="F31" s="108" t="n"/>
+      <c r="G31" s="108" t="n"/>
+      <c r="H31" s="108" t="n"/>
+      <c r="I31" s="108" t="n"/>
+      <c r="J31" s="108" t="n"/>
+      <c r="K31" s="108" t="n"/>
+      <c r="L31" s="108" t="n"/>
+      <c r="M31" s="108" t="n"/>
+      <c r="N31" s="108" t="n"/>
+      <c r="O31" s="108" t="n"/>
+      <c r="P31" s="108" t="n"/>
+      <c r="Q31" s="122" t="n"/>
+      <c r="R31" s="6" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="6" t="n"/>
+      <c r="Q32" s="123" t="n"/>
+      <c r="R32" s="6" t="n"/>
+    </row>
+    <row r="33" ht="20.15" customHeight="1">
+      <c r="A33" s="6" t="n"/>
+      <c r="Q33" s="123" t="n"/>
+      <c r="R33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="124" t="n"/>
+      <c r="B34" s="125" t="n"/>
+      <c r="C34" s="125" t="n"/>
+      <c r="D34" s="125" t="n"/>
+      <c r="E34" s="125" t="n"/>
+      <c r="F34" s="125" t="n"/>
+      <c r="G34" s="125" t="n"/>
+      <c r="H34" s="125" t="n"/>
+      <c r="I34" s="125" t="n"/>
+      <c r="J34" s="125" t="n"/>
+      <c r="K34" s="125" t="n"/>
+      <c r="L34" s="125" t="n"/>
+      <c r="M34" s="125" t="n"/>
+      <c r="N34" s="125" t="n"/>
+      <c r="O34" s="125" t="n"/>
+      <c r="P34" s="125" t="n"/>
+      <c r="Q34" s="126" t="n"/>
+      <c r="R34" s="6" t="n"/>
+    </row>
+    <row r="35" ht="7" customHeight="1">
+      <c r="A35" s="19" t="n"/>
+      <c r="B35" s="20" t="n"/>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="20" t="n"/>
+      <c r="F35" s="20" t="n"/>
+      <c r="G35" s="20" t="n"/>
+      <c r="H35" s="20" t="n"/>
+      <c r="I35" s="127" t="n"/>
+      <c r="J35" s="31" t="n"/>
+      <c r="K35" s="23" t="n"/>
+      <c r="L35" s="21" t="n"/>
+      <c r="M35" s="20" t="n"/>
+      <c r="N35" s="20" t="n"/>
+      <c r="O35" s="21" t="n"/>
+      <c r="P35" s="20" t="n"/>
+      <c r="Q35" s="20" t="n"/>
+    </row>
+    <row r="36" ht="20.15" customHeight="1">
+      <c r="A36" s="3" t="n"/>
+    </row>
+    <row r="37" ht="20.15" customHeight="1">
+      <c r="A37" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A31:Q34"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A16:I16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>